--- a/Suger import Acc.xlsx
+++ b/Suger import Acc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="268">
   <si>
     <t>البـــــــــــــــــــــــــــــــيان</t>
   </si>
@@ -805,6 +805,21 @@
   </si>
   <si>
     <t xml:space="preserve">8عربة تجاري الخرطوم </t>
+  </si>
+  <si>
+    <t>3عربة وليد +11عربة تجاري الخرطوم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3عربة وليد + 5عربة تجاري الخرطوم </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9عربة وليد +1عربة تجاري الخرطوم </t>
+  </si>
+  <si>
+    <t xml:space="preserve">خصم صالح ايمن عربة حلفا </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2عربة وليد +3عربة تجاري الخرطوم </t>
   </si>
 </sst>
 </file>
@@ -1258,10 +1273,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G442"/>
+  <dimension ref="A1:G455"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="C443" sqref="C443"/>
+    <sheetView tabSelected="1" topLeftCell="A401" workbookViewId="0">
+      <selection activeCell="A456" sqref="A456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -8728,6 +8743,9 @@
       </c>
     </row>
     <row r="422" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A422" s="4">
+        <v>1</v>
+      </c>
       <c r="B422" s="1" t="s">
         <v>256</v>
       </c>
@@ -8758,6 +8776,9 @@
       </c>
     </row>
     <row r="424" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A424" s="4">
+        <v>3</v>
+      </c>
       <c r="B424" s="1" t="s">
         <v>257</v>
       </c>
@@ -8788,6 +8809,9 @@
       </c>
     </row>
     <row r="426" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A426" s="4">
+        <v>2</v>
+      </c>
       <c r="B426" s="1" t="s">
         <v>204</v>
       </c>
@@ -8818,6 +8842,9 @@
       </c>
     </row>
     <row r="428" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A428" s="4">
+        <v>1</v>
+      </c>
       <c r="B428" s="1" t="s">
         <v>241</v>
       </c>
@@ -8882,7 +8909,7 @@
         <v>251</v>
       </c>
       <c r="C432" s="15">
-        <f>C431-D432</f>
+        <f t="shared" ref="C432:C442" si="35">C431-D432</f>
         <v>337199</v>
       </c>
       <c r="D432" s="15">
@@ -8892,12 +8919,12 @@
         <v>43355</v>
       </c>
     </row>
-    <row r="433" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="433" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="B433" s="1" t="s">
         <v>251</v>
       </c>
       <c r="C433" s="15">
-        <f>C432-D433</f>
+        <f t="shared" si="35"/>
         <v>326999</v>
       </c>
       <c r="D433" s="15">
@@ -8907,12 +8934,15 @@
         <v>43362</v>
       </c>
     </row>
-    <row r="434" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="434" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A434" s="4">
+        <v>8</v>
+      </c>
       <c r="B434" s="1" t="s">
         <v>258</v>
       </c>
       <c r="C434" s="15">
-        <f>C433-D434</f>
+        <f t="shared" si="35"/>
         <v>320699</v>
       </c>
       <c r="D434" s="15">
@@ -8922,12 +8952,12 @@
         <v>43362</v>
       </c>
     </row>
-    <row r="435" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="435" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="B435" s="1" t="s">
         <v>251</v>
       </c>
       <c r="C435" s="15">
-        <f>C434-D435</f>
+        <f t="shared" si="35"/>
         <v>305199</v>
       </c>
       <c r="D435" s="15">
@@ -8937,12 +8967,15 @@
         <v>43363</v>
       </c>
     </row>
-    <row r="436" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="436" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A436" s="4">
+        <v>5</v>
+      </c>
       <c r="B436" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C436" s="15">
-        <f>C435-D436</f>
+        <f t="shared" si="35"/>
         <v>301399</v>
       </c>
       <c r="D436" s="15">
@@ -8952,12 +8985,12 @@
         <v>43363</v>
       </c>
     </row>
-    <row r="437" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="437" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="B437" s="1" t="s">
         <v>251</v>
       </c>
       <c r="C437" s="15">
-        <f>C436-D437</f>
+        <f t="shared" si="35"/>
         <v>282899</v>
       </c>
       <c r="D437" s="15">
@@ -8967,12 +9000,15 @@
         <v>43365</v>
       </c>
     </row>
-    <row r="438" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="438" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A438" s="4">
+        <v>4</v>
+      </c>
       <c r="B438" s="1" t="s">
         <v>260</v>
       </c>
       <c r="C438" s="15">
-        <f>C437-D438</f>
+        <f t="shared" si="35"/>
         <v>279699</v>
       </c>
       <c r="D438" s="15">
@@ -8982,12 +9018,12 @@
         <v>43365</v>
       </c>
     </row>
-    <row r="439" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="439" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="B439" s="1" t="s">
         <v>251</v>
       </c>
       <c r="C439" s="15">
-        <f>C438-D439</f>
+        <f t="shared" si="35"/>
         <v>268099</v>
       </c>
       <c r="D439" s="15">
@@ -8997,12 +9033,15 @@
         <v>43366</v>
       </c>
     </row>
-    <row r="440" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="440" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A440" s="4">
+        <v>6</v>
+      </c>
       <c r="B440" s="1" t="s">
         <v>261</v>
       </c>
       <c r="C440" s="15">
-        <f>C439-D440</f>
+        <f t="shared" si="35"/>
         <v>263499</v>
       </c>
       <c r="D440" s="15">
@@ -9012,12 +9051,12 @@
         <v>43366</v>
       </c>
     </row>
-    <row r="441" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="441" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="B441" s="1" t="s">
         <v>251</v>
       </c>
       <c r="C441" s="15">
-        <f>C440-D441</f>
+        <f t="shared" si="35"/>
         <v>255499</v>
       </c>
       <c r="D441" s="15">
@@ -9027,12 +9066,15 @@
         <v>43367</v>
       </c>
     </row>
-    <row r="442" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="442" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A442" s="4">
+        <v>8</v>
+      </c>
       <c r="B442" s="1" t="s">
         <v>262</v>
       </c>
       <c r="C442" s="15">
-        <f>C441-D442</f>
+        <f t="shared" si="35"/>
         <v>249999</v>
       </c>
       <c r="D442" s="15">
@@ -9040,6 +9082,222 @@
       </c>
       <c r="F442" s="3">
         <v>43367</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B443" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C443" s="15">
+        <f>C442-D443</f>
+        <v>242699</v>
+      </c>
+      <c r="D443" s="15">
+        <v>7300</v>
+      </c>
+      <c r="F443" s="3">
+        <v>43368</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A444" s="4">
+        <v>6</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C444" s="15">
+        <f>C443-D444</f>
+        <v>238499</v>
+      </c>
+      <c r="D444" s="15">
+        <v>4200</v>
+      </c>
+      <c r="F444" s="3">
+        <v>43368</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B445" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C445" s="15">
+        <f>C444-D445</f>
+        <v>227347</v>
+      </c>
+      <c r="D445" s="15">
+        <v>11152</v>
+      </c>
+      <c r="F445" s="3">
+        <v>43369</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A446" s="4">
+        <v>14</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C446" s="15">
+        <f>C445-D446</f>
+        <v>217147</v>
+      </c>
+      <c r="D446" s="15">
+        <v>10200</v>
+      </c>
+      <c r="F446" s="3">
+        <v>43369</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B447" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C447" s="15">
+        <f>C446-D447</f>
+        <v>213247</v>
+      </c>
+      <c r="D447" s="15">
+        <v>3900</v>
+      </c>
+      <c r="F447" s="3">
+        <v>43370</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A448" s="4">
+        <v>8</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C448" s="15">
+        <f>C447-D448</f>
+        <v>207647</v>
+      </c>
+      <c r="D448" s="15">
+        <v>5600</v>
+      </c>
+      <c r="F448" s="3">
+        <v>43370</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B449" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C449" s="15">
+        <f>C448-D449</f>
+        <v>198147</v>
+      </c>
+      <c r="D449" s="15">
+        <v>9500</v>
+      </c>
+      <c r="F449" s="3">
+        <v>43372</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A450" s="4">
+        <v>10</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C450" s="15">
+        <f>C449-D450</f>
+        <v>190247</v>
+      </c>
+      <c r="D450" s="15">
+        <v>7900</v>
+      </c>
+      <c r="F450" s="3">
+        <v>43372</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B451" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C451" s="15">
+        <f>C450-D451</f>
+        <v>182147</v>
+      </c>
+      <c r="D451" s="15">
+        <v>8100</v>
+      </c>
+      <c r="F451" s="3">
+        <v>43373</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A452" s="4">
+        <v>1</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C452" s="15">
+        <f>C451-D452</f>
+        <v>181547</v>
+      </c>
+      <c r="D452" s="15">
+        <v>600</v>
+      </c>
+      <c r="F452" s="3">
+        <v>43373</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A453" s="4">
+        <v>5</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C453" s="15">
+        <f>C452-D453</f>
+        <v>177947</v>
+      </c>
+      <c r="D453" s="15">
+        <v>3600</v>
+      </c>
+      <c r="F453" s="3">
+        <v>43373</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B454" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C454" s="15">
+        <f>C453-D454</f>
+        <v>170747</v>
+      </c>
+      <c r="D454" s="15">
+        <v>7200</v>
+      </c>
+      <c r="F454" s="3">
+        <v>43374</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A455" s="4">
+        <v>2</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C455" s="15">
+        <f>C454-D455</f>
+        <v>169447</v>
+      </c>
+      <c r="D455" s="15">
+        <v>1300</v>
+      </c>
+      <c r="F455" s="3">
+        <v>43374</v>
       </c>
     </row>
   </sheetData>

--- a/Suger import Acc.xlsx
+++ b/Suger import Acc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="287">
   <si>
     <t>البـــــــــــــــــــــــــــــــيان</t>
   </si>
@@ -820,6 +820,63 @@
   </si>
   <si>
     <t xml:space="preserve">2عربة وليد +3عربة تجاري الخرطوم </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5عربة وليد + 4عربة تجاري الخرطوم </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4عربة وليد +6عربة تجاري الخرطوم </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1عربة +4 عربة تجاري الخرطوم </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11عربة تجاري الخرطوم </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3عربة وليد +4عربة تجاري الخرطوم </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12عربة تجاري الخرطوم </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2عربة وليد + 11عربة تجاري الخرطوم </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7عربة وليد + 7 عربة تجاري الخرطوم </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3عربة وليد + 7 عربة تجاري الخرطوم </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 عربة تجاري الخرطوم </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1عربة وليد +5 عربة تجاري الخرطوم </t>
+  </si>
+  <si>
+    <t>حاويه بوليصة رقم  9584</t>
+  </si>
+  <si>
+    <t>حاويه بوليصة رقم  7953</t>
+  </si>
+  <si>
+    <t>حاويه بوليصة رقم  9671</t>
+  </si>
+  <si>
+    <t>حاويه بوليصة رقم  8808</t>
+  </si>
+  <si>
+    <t>حاويه بوليصة رقم  3006</t>
+  </si>
+  <si>
+    <t>حاويه بوليصة رقم  9746</t>
+  </si>
+  <si>
+    <t>حاويه بوليصة رقم  9768</t>
+  </si>
+  <si>
+    <t>حاويه بوليصة رقم  25471</t>
   </si>
 </sst>
 </file>
@@ -917,7 +974,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -973,6 +1030,11 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1273,10 +1335,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G455"/>
+  <dimension ref="A1:G483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A401" workbookViewId="0">
-      <selection activeCell="A456" sqref="A456"/>
+    <sheetView tabSelected="1" topLeftCell="A463" workbookViewId="0">
+      <selection activeCell="C484" sqref="C484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -9089,7 +9151,7 @@
         <v>251</v>
       </c>
       <c r="C443" s="15">
-        <f>C442-D443</f>
+        <f t="shared" ref="C443:C455" si="36">C442-D443</f>
         <v>242699</v>
       </c>
       <c r="D443" s="15">
@@ -9107,7 +9169,7 @@
         <v>218</v>
       </c>
       <c r="C444" s="15">
-        <f>C443-D444</f>
+        <f t="shared" si="36"/>
         <v>238499</v>
       </c>
       <c r="D444" s="15">
@@ -9122,7 +9184,7 @@
         <v>251</v>
       </c>
       <c r="C445" s="15">
-        <f>C444-D445</f>
+        <f t="shared" si="36"/>
         <v>227347</v>
       </c>
       <c r="D445" s="15">
@@ -9140,7 +9202,7 @@
         <v>263</v>
       </c>
       <c r="C446" s="15">
-        <f>C445-D446</f>
+        <f t="shared" si="36"/>
         <v>217147</v>
       </c>
       <c r="D446" s="15">
@@ -9155,7 +9217,7 @@
         <v>251</v>
       </c>
       <c r="C447" s="15">
-        <f>C446-D447</f>
+        <f t="shared" si="36"/>
         <v>213247</v>
       </c>
       <c r="D447" s="15">
@@ -9173,7 +9235,7 @@
         <v>264</v>
       </c>
       <c r="C448" s="15">
-        <f>C447-D448</f>
+        <f t="shared" si="36"/>
         <v>207647</v>
       </c>
       <c r="D448" s="15">
@@ -9188,7 +9250,7 @@
         <v>251</v>
       </c>
       <c r="C449" s="15">
-        <f>C448-D449</f>
+        <f t="shared" si="36"/>
         <v>198147</v>
       </c>
       <c r="D449" s="15">
@@ -9206,7 +9268,7 @@
         <v>265</v>
       </c>
       <c r="C450" s="15">
-        <f>C449-D450</f>
+        <f t="shared" si="36"/>
         <v>190247</v>
       </c>
       <c r="D450" s="15">
@@ -9221,7 +9283,7 @@
         <v>251</v>
       </c>
       <c r="C451" s="15">
-        <f>C450-D451</f>
+        <f t="shared" si="36"/>
         <v>182147</v>
       </c>
       <c r="D451" s="15">
@@ -9239,7 +9301,7 @@
         <v>266</v>
       </c>
       <c r="C452" s="15">
-        <f>C451-D452</f>
+        <f t="shared" si="36"/>
         <v>181547</v>
       </c>
       <c r="D452" s="15">
@@ -9257,7 +9319,7 @@
         <v>267</v>
       </c>
       <c r="C453" s="15">
-        <f>C452-D453</f>
+        <f t="shared" si="36"/>
         <v>177947</v>
       </c>
       <c r="D453" s="15">
@@ -9272,7 +9334,7 @@
         <v>251</v>
       </c>
       <c r="C454" s="15">
-        <f>C453-D454</f>
+        <f t="shared" si="36"/>
         <v>170747</v>
       </c>
       <c r="D454" s="15">
@@ -9290,7 +9352,7 @@
         <v>204</v>
       </c>
       <c r="C455" s="15">
-        <f>C454-D455</f>
+        <f t="shared" si="36"/>
         <v>169447</v>
       </c>
       <c r="D455" s="15">
@@ -9298,6 +9360,489 @@
       </c>
       <c r="F455" s="3">
         <v>43374</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B456" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C456" s="15">
+        <f>C455-D456</f>
+        <v>164647</v>
+      </c>
+      <c r="D456" s="15">
+        <v>4800</v>
+      </c>
+      <c r="F456" s="3">
+        <v>43375</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A457" s="4">
+        <v>6</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C457" s="15">
+        <f>C456-D457</f>
+        <v>160347</v>
+      </c>
+      <c r="D457" s="15">
+        <v>4300</v>
+      </c>
+      <c r="F457" s="3">
+        <v>43375</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B458" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C458" s="15">
+        <f>C457-D458</f>
+        <v>151847</v>
+      </c>
+      <c r="D458" s="15">
+        <v>8500</v>
+      </c>
+      <c r="F458" s="3">
+        <v>43376</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A459" s="4">
+        <v>9</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C459" s="15">
+        <f>C458-D459</f>
+        <v>145347</v>
+      </c>
+      <c r="D459" s="15">
+        <v>6500</v>
+      </c>
+      <c r="F459" s="3">
+        <v>43376</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B460" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C460" s="15">
+        <f>C459-D460</f>
+        <v>136847</v>
+      </c>
+      <c r="D460" s="15">
+        <v>8500</v>
+      </c>
+      <c r="F460" s="3">
+        <v>43377</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A461" s="4">
+        <v>10</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C461" s="15">
+        <f>C460-D461</f>
+        <v>129547</v>
+      </c>
+      <c r="D461" s="15">
+        <v>7300</v>
+      </c>
+      <c r="F461" s="3">
+        <v>43377</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B462" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C462" s="15">
+        <f>C461-D462</f>
+        <v>117747</v>
+      </c>
+      <c r="D462" s="15">
+        <v>11800</v>
+      </c>
+      <c r="F462" s="3">
+        <v>43379</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A463" s="4">
+        <v>5</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C463" s="15">
+        <f>C462-D463</f>
+        <v>111447</v>
+      </c>
+      <c r="D463" s="15">
+        <v>6300</v>
+      </c>
+      <c r="F463" s="3">
+        <v>43379</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B464" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C464" s="15">
+        <f>C463-D464</f>
+        <v>101247</v>
+      </c>
+      <c r="D464" s="15">
+        <v>10200</v>
+      </c>
+      <c r="F464" s="3">
+        <v>43380</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A465" s="4">
+        <v>7</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C465" s="15">
+        <f>C464-D465</f>
+        <v>96247</v>
+      </c>
+      <c r="D465" s="15">
+        <v>5000</v>
+      </c>
+      <c r="F465" s="3">
+        <v>43380</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B466" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C466" s="15">
+        <f>C465-D466</f>
+        <v>86047</v>
+      </c>
+      <c r="D466" s="15">
+        <v>10200</v>
+      </c>
+      <c r="F466" s="3">
+        <v>43381</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A467" s="4">
+        <v>11</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C467" s="15">
+        <f>C466-D467</f>
+        <v>78547</v>
+      </c>
+      <c r="D467" s="15">
+        <v>7500</v>
+      </c>
+      <c r="F467" s="3">
+        <v>43381</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B468" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C468" s="15">
+        <f>C467-D468</f>
+        <v>70647</v>
+      </c>
+      <c r="D468" s="15">
+        <v>7900</v>
+      </c>
+      <c r="F468" s="3">
+        <v>43382</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A469" s="4">
+        <v>12</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C469" s="15">
+        <f>C468-D469</f>
+        <v>62547</v>
+      </c>
+      <c r="D469" s="15">
+        <v>8100</v>
+      </c>
+      <c r="F469" s="3">
+        <v>43382</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A470" s="4">
+        <v>7</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C470" s="15">
+        <f>C469-D470</f>
+        <v>57747</v>
+      </c>
+      <c r="D470" s="15">
+        <v>4800</v>
+      </c>
+      <c r="F470" s="3">
+        <v>43383</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A471" s="4">
+        <v>13</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C471" s="15">
+        <f>C470-D471</f>
+        <v>48647</v>
+      </c>
+      <c r="D471" s="15">
+        <v>9100</v>
+      </c>
+      <c r="F471" s="3">
+        <v>43384</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A472" s="4">
+        <v>14</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C472" s="15">
+        <f>C471-D472</f>
+        <v>38247</v>
+      </c>
+      <c r="D472" s="15">
+        <v>10400</v>
+      </c>
+      <c r="F472" s="3">
+        <v>43386</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A473" s="4">
+        <v>8</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C473" s="15">
+        <f>C472-D473</f>
+        <v>32447</v>
+      </c>
+      <c r="D473" s="15">
+        <v>5800</v>
+      </c>
+      <c r="F473" s="3">
+        <v>43387</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A474" s="4">
+        <v>10</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C474" s="15">
+        <f>C473-D474</f>
+        <v>25047</v>
+      </c>
+      <c r="D474" s="15">
+        <v>7400</v>
+      </c>
+      <c r="F474" s="3">
+        <v>43388</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A475" s="4">
+        <v>12</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C475" s="15">
+        <f>C474-D475</f>
+        <v>16747</v>
+      </c>
+      <c r="D475" s="15">
+        <v>8300</v>
+      </c>
+      <c r="F475" s="3">
+        <v>43389</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A476" s="22">
+        <v>5</v>
+      </c>
+      <c r="B476" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="C476" s="15">
+        <f>C475+E476</f>
+        <v>19447</v>
+      </c>
+      <c r="E476" s="18">
+        <v>2700</v>
+      </c>
+      <c r="F476" s="23">
+        <v>43373</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A477" s="22">
+        <v>25</v>
+      </c>
+      <c r="B477" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="C477" s="15">
+        <f>C476+E477</f>
+        <v>32947</v>
+      </c>
+      <c r="E477" s="18">
+        <v>13500</v>
+      </c>
+      <c r="F477" s="23">
+        <v>43373</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A478" s="22">
+        <v>19</v>
+      </c>
+      <c r="B478" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="C478" s="15">
+        <f>C477+E478</f>
+        <v>43207</v>
+      </c>
+      <c r="E478" s="18">
+        <v>10260</v>
+      </c>
+      <c r="F478" s="23">
+        <v>43373</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A479" s="22">
+        <v>25</v>
+      </c>
+      <c r="B479" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="C479" s="15">
+        <f>C478+E479</f>
+        <v>56707</v>
+      </c>
+      <c r="E479" s="18">
+        <v>13500</v>
+      </c>
+      <c r="F479" s="23">
+        <v>43373</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A480" s="22">
+        <v>1</v>
+      </c>
+      <c r="B480" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="C480" s="15">
+        <f>C479+E480</f>
+        <v>57247</v>
+      </c>
+      <c r="E480" s="18">
+        <v>540</v>
+      </c>
+      <c r="F480" s="23">
+        <v>43373</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A481" s="22">
+        <v>25</v>
+      </c>
+      <c r="B481" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="C481" s="15">
+        <f>C480+E481</f>
+        <v>70747</v>
+      </c>
+      <c r="E481" s="18">
+        <v>13500</v>
+      </c>
+      <c r="F481" s="23">
+        <v>43373</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A482" s="22">
+        <v>50</v>
+      </c>
+      <c r="B482" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="C482" s="15">
+        <f>C481+E482</f>
+        <v>97747</v>
+      </c>
+      <c r="E482" s="18">
+        <v>27000</v>
+      </c>
+      <c r="F482" s="23">
+        <v>43373</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A483" s="5">
+        <v>100</v>
+      </c>
+      <c r="B483" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="C483" s="15">
+        <f>C482+E483</f>
+        <v>149747</v>
+      </c>
+      <c r="E483" s="18">
+        <v>52000</v>
+      </c>
+      <c r="F483" s="23">
+        <v>43383</v>
       </c>
     </row>
   </sheetData>

--- a/Suger import Acc.xlsx
+++ b/Suger import Acc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="288">
   <si>
     <t>البـــــــــــــــــــــــــــــــيان</t>
   </si>
@@ -877,6 +877,9 @@
   </si>
   <si>
     <t>حاويه بوليصة رقم  25471</t>
+  </si>
+  <si>
+    <t>2عربة وليد + 12 عربة تجاري الخرطوم</t>
   </si>
 </sst>
 </file>
@@ -1007,9 +1010,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1019,9 +1019,6 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1035,6 +1032,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1335,19 +1338,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G483"/>
+  <dimension ref="A1:G489"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A463" workbookViewId="0">
-      <selection activeCell="C484" sqref="C484"/>
+      <selection activeCell="C490" sqref="C490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="50.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="16" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1355,16 +1358,16 @@
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1372,7 +1375,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2">
@@ -1390,7 +1393,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2">
@@ -1409,7 +1412,7 @@
       <c r="A4" s="4">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="22" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2">
@@ -1425,7 +1428,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2">
@@ -1444,7 +1447,7 @@
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="22" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2">
@@ -1460,7 +1463,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="2">
@@ -1476,7 +1479,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="2">
@@ -1495,7 +1498,7 @@
       <c r="A9" s="4">
         <v>1</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="22" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="2">
@@ -1511,7 +1514,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="2">
@@ -1530,7 +1533,7 @@
       <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="2">
@@ -1546,7 +1549,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="2">
@@ -1565,7 +1568,7 @@
       <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="22" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="2">
@@ -1581,7 +1584,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="2">
@@ -1600,7 +1603,7 @@
       <c r="A15" s="4">
         <v>9</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="22" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="2">
@@ -1619,7 +1622,7 @@
       <c r="A16" s="4">
         <v>16</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="22" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="2">
@@ -1638,7 +1641,7 @@
       <c r="A17" s="5">
         <v>40</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="2">
@@ -1657,7 +1660,7 @@
       <c r="A18" s="5">
         <v>40</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="2">
@@ -1676,7 +1679,7 @@
       <c r="A19" s="5">
         <v>35</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="2">
@@ -1695,7 +1698,7 @@
       <c r="A20" s="5">
         <v>30</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="2">
@@ -1714,7 +1717,7 @@
       <c r="A21" s="5">
         <v>40</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="19" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="2">
@@ -1733,7 +1736,7 @@
       <c r="A22" s="5">
         <v>30</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="2">
@@ -1752,7 +1755,7 @@
       <c r="A23" s="5">
         <v>35</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="2">
@@ -1771,7 +1774,7 @@
       <c r="A24" s="5">
         <v>100</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="2">
@@ -1787,7 +1790,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="2">
@@ -1806,7 +1809,7 @@
       <c r="A26" s="4">
         <v>6</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C26" s="2">
@@ -1822,7 +1825,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="2">
@@ -1841,7 +1844,7 @@
       <c r="A28" s="4">
         <v>2</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="22" t="s">
         <v>20</v>
       </c>
       <c r="C28" s="2">
@@ -1857,7 +1860,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="2">
@@ -1876,7 +1879,7 @@
       <c r="A30" s="4">
         <v>3</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="22" t="s">
         <v>21</v>
       </c>
       <c r="C30" s="2">
@@ -1892,7 +1895,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C31" s="2">
@@ -1911,7 +1914,7 @@
       <c r="A32" s="4">
         <v>11</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="22" t="s">
         <v>21</v>
       </c>
       <c r="C32" s="2">
@@ -1927,7 +1930,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="2">
@@ -1946,7 +1949,7 @@
       <c r="A34" s="4">
         <v>3</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C34" s="2">
@@ -1965,7 +1968,7 @@
       <c r="A35" s="5">
         <v>50</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="19" t="s">
         <v>23</v>
       </c>
       <c r="C35" s="8">
@@ -1981,7 +1984,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="2">
@@ -2000,7 +2003,7 @@
       <c r="A37" s="4">
         <v>9</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="22" t="s">
         <v>21</v>
       </c>
       <c r="C37" s="2">
@@ -2016,7 +2019,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="2">
@@ -2035,7 +2038,7 @@
       <c r="A39" s="4">
         <v>7</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C39" s="2">
@@ -2051,7 +2054,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C40" s="2">
@@ -2070,7 +2073,7 @@
       <c r="A41" s="4">
         <v>6</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="22" t="s">
         <v>34</v>
       </c>
       <c r="C41" s="2">
@@ -2086,7 +2089,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C42" s="2">
@@ -2102,7 +2105,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="22" t="s">
         <v>25</v>
       </c>
       <c r="C43" s="2">
@@ -2118,7 +2121,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C44" s="2">
@@ -2137,7 +2140,7 @@
       <c r="A45" s="4">
         <v>11</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="22" t="s">
         <v>33</v>
       </c>
       <c r="C45" s="2">
@@ -2153,7 +2156,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C46" s="2">
@@ -2172,7 +2175,7 @@
       <c r="A47" s="4">
         <v>4</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C47" s="2">
@@ -2188,7 +2191,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C48" s="2">
@@ -2207,7 +2210,7 @@
       <c r="A49" s="4">
         <v>5</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C49" s="2">
@@ -2223,7 +2226,7 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C50" s="2">
@@ -2242,7 +2245,7 @@
       <c r="A51" s="4">
         <v>6</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C51" s="2">
@@ -2261,7 +2264,7 @@
       <c r="A52" s="5">
         <v>30</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C52" s="2">
@@ -2280,7 +2283,7 @@
       <c r="A53" s="5">
         <v>30</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C53" s="2">
@@ -2299,7 +2302,7 @@
       <c r="A54" s="5">
         <v>40</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="19" t="s">
         <v>30</v>
       </c>
       <c r="C54" s="2">
@@ -2315,7 +2318,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C55" s="2">
@@ -2334,7 +2337,7 @@
       <c r="A56" s="4">
         <v>11</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="22" t="s">
         <v>31</v>
       </c>
       <c r="C56" s="2">
@@ -2353,7 +2356,7 @@
       <c r="A57" s="5">
         <v>100</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="19" t="s">
         <v>35</v>
       </c>
       <c r="C57" s="2">
@@ -2372,7 +2375,7 @@
       <c r="A58" s="5">
         <v>57</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="19" t="s">
         <v>36</v>
       </c>
       <c r="C58" s="2">
@@ -2391,7 +2394,7 @@
       <c r="A59" s="5">
         <v>70</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="19" t="s">
         <v>37</v>
       </c>
       <c r="C59" s="2">
@@ -2410,7 +2413,7 @@
       <c r="A60" s="5">
         <v>21</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="19" t="s">
         <v>38</v>
       </c>
       <c r="C60" s="2">
@@ -2429,7 +2432,7 @@
       <c r="A61" s="5">
         <v>50</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="19" t="s">
         <v>39</v>
       </c>
       <c r="C61" s="2">
@@ -2448,7 +2451,7 @@
       <c r="A62" s="5">
         <v>70</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="19" t="s">
         <v>40</v>
       </c>
       <c r="C62" s="2">
@@ -2465,7 +2468,7 @@
     </row>
     <row r="63" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="5"/>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="19" t="s">
         <v>44</v>
       </c>
       <c r="C63" s="6">
@@ -2484,7 +2487,7 @@
     </row>
     <row r="64" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="5"/>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="19" t="s">
         <v>45</v>
       </c>
       <c r="C64" s="6">
@@ -2506,10 +2509,10 @@
       <c r="A65" s="5">
         <v>100</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C65" s="13">
+      <c r="C65" s="12">
         <f>C64+E65</f>
         <v>1256386</v>
       </c>
@@ -2526,10 +2529,10 @@
       <c r="A66" s="5">
         <v>99</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C66" s="13">
+      <c r="C66" s="12">
         <f>C65+E66</f>
         <v>1309846</v>
       </c>
@@ -2546,10 +2549,10 @@
       <c r="A67" s="5">
         <v>70</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C67" s="13">
+      <c r="C67" s="12">
         <f>C66+E67</f>
         <v>1347646</v>
       </c>
@@ -2563,7 +2566,7 @@
       <c r="G67" s="11"/>
     </row>
     <row r="68" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C68" s="2">
@@ -2582,10 +2585,10 @@
       <c r="A69" s="4">
         <v>9</v>
       </c>
-      <c r="B69" s="17" t="s">
+      <c r="B69" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C69" s="14">
+      <c r="C69" s="13">
         <f>C68-D69</f>
         <v>1336046</v>
       </c>
@@ -2598,10 +2601,10 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="B70" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70" s="13">
+      <c r="B70" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="12">
         <f>C69-D70</f>
         <v>1322806</v>
       </c>
@@ -2617,10 +2620,10 @@
       <c r="A71" s="4">
         <v>12</v>
       </c>
-      <c r="B71" s="17" t="s">
+      <c r="B71" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C71" s="13">
+      <c r="C71" s="12">
         <f>C70-D71</f>
         <v>1312206</v>
       </c>
@@ -2636,7 +2639,7 @@
       <c r="A72" s="5">
         <v>68</v>
       </c>
-      <c r="B72" s="12" t="s">
+      <c r="B72" s="19" t="s">
         <v>47</v>
       </c>
       <c r="C72" s="2">
@@ -2644,7 +2647,7 @@
         <v>1347566</v>
       </c>
       <c r="D72" s="2"/>
-      <c r="E72" s="19">
+      <c r="E72" s="17">
         <v>35360</v>
       </c>
       <c r="F72" s="3">
@@ -2655,7 +2658,7 @@
       <c r="A73" s="5">
         <v>24</v>
       </c>
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="19" t="s">
         <v>48</v>
       </c>
       <c r="C73" s="2">
@@ -2663,7 +2666,7 @@
         <v>1360046</v>
       </c>
       <c r="D73" s="2"/>
-      <c r="E73" s="19">
+      <c r="E73" s="17">
         <v>12480</v>
       </c>
       <c r="F73" s="3">
@@ -2674,7 +2677,7 @@
       <c r="A74" s="5">
         <v>47</v>
       </c>
-      <c r="B74" s="12" t="s">
+      <c r="B74" s="19" t="s">
         <v>49</v>
       </c>
       <c r="C74" s="2">
@@ -2682,7 +2685,7 @@
         <v>1384486</v>
       </c>
       <c r="D74" s="2"/>
-      <c r="E74" s="19">
+      <c r="E74" s="17">
         <v>24440</v>
       </c>
       <c r="F74" s="3">
@@ -2690,7 +2693,7 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C75" s="2">
@@ -2709,7 +2712,7 @@
       <c r="A76" s="4">
         <v>23</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="22" t="s">
         <v>50</v>
       </c>
       <c r="C76" s="2">
@@ -2725,7 +2728,7 @@
       </c>
     </row>
     <row r="77" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C77" s="2">
@@ -2744,7 +2747,7 @@
       <c r="A78" s="4">
         <v>8</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="22" t="s">
         <v>51</v>
       </c>
       <c r="C78" s="2">
@@ -2760,7 +2763,7 @@
       </c>
     </row>
     <row r="79" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C79" s="2">
@@ -2779,7 +2782,7 @@
       <c r="A80" s="4">
         <v>3</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="22" t="s">
         <v>52</v>
       </c>
       <c r="C80" s="2">
@@ -2798,7 +2801,7 @@
       <c r="A81" s="5">
         <v>50</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="B81" s="19" t="s">
         <v>53</v>
       </c>
       <c r="C81" s="8">
@@ -2814,7 +2817,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C82" s="2">
@@ -2833,7 +2836,7 @@
       <c r="A83" s="4">
         <v>8</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C83" s="2">
@@ -2849,7 +2852,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C84" s="2">
@@ -2868,7 +2871,7 @@
       <c r="A85" s="4">
         <v>10</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="22" t="s">
         <v>54</v>
       </c>
       <c r="C85" s="2">
@@ -2884,7 +2887,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C86" s="2">
@@ -2903,7 +2906,7 @@
       <c r="A87" s="4">
         <v>1</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="22" t="s">
         <v>55</v>
       </c>
       <c r="C87" s="2">
@@ -2922,7 +2925,7 @@
       <c r="A88" s="5">
         <v>20</v>
       </c>
-      <c r="B88" s="12" t="s">
+      <c r="B88" s="19" t="s">
         <v>56</v>
       </c>
       <c r="C88" s="2">
@@ -2938,7 +2941,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C89" s="2">
@@ -2957,7 +2960,7 @@
       <c r="A90" s="4">
         <v>11</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C90" s="2">
@@ -2973,7 +2976,7 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C91" s="2">
@@ -2992,7 +2995,7 @@
       <c r="A92" s="4">
         <v>10</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="22" t="s">
         <v>57</v>
       </c>
       <c r="C92" s="2">
@@ -3008,7 +3011,7 @@
       </c>
     </row>
     <row r="93" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C93" s="2">
@@ -3027,7 +3030,7 @@
       <c r="A94" s="4">
         <v>12</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="22" t="s">
         <v>58</v>
       </c>
       <c r="C94" s="2">
@@ -3043,7 +3046,7 @@
       </c>
     </row>
     <row r="95" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C95" s="2">
@@ -3062,7 +3065,7 @@
       <c r="A96" s="4">
         <v>20</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="22" t="s">
         <v>59</v>
       </c>
       <c r="C96" s="2">
@@ -3081,7 +3084,7 @@
       <c r="A97" s="5">
         <v>91</v>
       </c>
-      <c r="B97" s="12" t="s">
+      <c r="B97" s="19" t="s">
         <v>60</v>
       </c>
       <c r="C97" s="2">
@@ -3089,7 +3092,7 @@
         <v>1243266</v>
       </c>
       <c r="D97" s="2"/>
-      <c r="E97" s="19">
+      <c r="E97" s="17">
         <v>49140</v>
       </c>
       <c r="F97" s="3">
@@ -3097,7 +3100,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C98" s="2">
@@ -3116,7 +3119,7 @@
       <c r="A99" s="4">
         <v>9</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C99" s="2">
@@ -3132,7 +3135,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C100" s="2">
@@ -3151,7 +3154,7 @@
       <c r="A101" s="4">
         <v>5</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="22" t="s">
         <v>61</v>
       </c>
       <c r="C101" s="2">
@@ -3167,7 +3170,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C102" s="2">
@@ -3186,7 +3189,7 @@
       <c r="A103" s="4">
         <v>9</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="22" t="s">
         <v>62</v>
       </c>
       <c r="C103" s="2">
@@ -3202,7 +3205,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C104" s="2">
@@ -3221,7 +3224,7 @@
       <c r="A105" s="4">
         <v>4</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="22" t="s">
         <v>63</v>
       </c>
       <c r="C105" s="2">
@@ -3237,7 +3240,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C106" s="2">
@@ -3256,7 +3259,7 @@
       <c r="A107" s="4">
         <v>5</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="22" t="s">
         <v>64</v>
       </c>
       <c r="C107" s="2">
@@ -3275,7 +3278,7 @@
       <c r="A108" s="5">
         <v>40</v>
       </c>
-      <c r="B108" s="12" t="s">
+      <c r="B108" s="19" t="s">
         <v>65</v>
       </c>
       <c r="C108" s="2">
@@ -3291,7 +3294,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C109" s="2">
@@ -3310,7 +3313,7 @@
       <c r="A110" s="4">
         <v>8</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="22" t="s">
         <v>66</v>
       </c>
       <c r="C110" s="2">
@@ -3326,7 +3329,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C111" s="2">
@@ -3345,7 +3348,7 @@
       <c r="A112" s="4">
         <v>6</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C112" s="2">
@@ -3361,7 +3364,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C113" s="2">
@@ -3380,7 +3383,7 @@
       <c r="A114" s="4">
         <v>13</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="22" t="s">
         <v>67</v>
       </c>
       <c r="C114" s="2">
@@ -3399,7 +3402,7 @@
       <c r="A115" s="5">
         <v>50</v>
       </c>
-      <c r="B115" s="12" t="s">
+      <c r="B115" s="19" t="s">
         <v>68</v>
       </c>
       <c r="C115" s="2">
@@ -3415,7 +3418,7 @@
       </c>
     </row>
     <row r="116" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C116" s="2">
@@ -3434,7 +3437,7 @@
       <c r="A117" s="4">
         <v>3</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="22" t="s">
         <v>69</v>
       </c>
       <c r="C117" s="2">
@@ -3450,7 +3453,7 @@
       </c>
     </row>
     <row r="118" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B118" s="1" t="s">
+      <c r="B118" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C118" s="2">
@@ -3469,7 +3472,7 @@
       <c r="A119" s="4">
         <v>7</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" s="22" t="s">
         <v>70</v>
       </c>
       <c r="C119" s="2">
@@ -3485,7 +3488,7 @@
       </c>
     </row>
     <row r="120" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B120" s="1" t="s">
+      <c r="B120" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C120" s="2">
@@ -3501,7 +3504,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B121" s="1" t="s">
+      <c r="B121" s="22" t="s">
         <v>71</v>
       </c>
       <c r="C121" s="2">
@@ -3517,7 +3520,7 @@
       </c>
     </row>
     <row r="122" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B122" s="1" t="s">
+      <c r="B122" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C122" s="2">
@@ -3536,7 +3539,7 @@
       <c r="A123" s="4">
         <v>2</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" s="22" t="s">
         <v>72</v>
       </c>
       <c r="C123" s="2">
@@ -3552,7 +3555,7 @@
       </c>
     </row>
     <row r="124" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B124" s="1" t="s">
+      <c r="B124" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C124" s="2">
@@ -3571,7 +3574,7 @@
       <c r="A125" s="4">
         <v>15</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" s="22" t="s">
         <v>73</v>
       </c>
       <c r="C125" s="2">
@@ -3590,7 +3593,7 @@
       <c r="A126" s="5">
         <v>50</v>
       </c>
-      <c r="B126" s="12" t="s">
+      <c r="B126" s="19" t="s">
         <v>74</v>
       </c>
       <c r="C126" s="2">
@@ -3609,7 +3612,7 @@
       <c r="A127" s="5">
         <v>20</v>
       </c>
-      <c r="B127" s="12" t="s">
+      <c r="B127" s="19" t="s">
         <v>75</v>
       </c>
       <c r="C127" s="2">
@@ -3628,7 +3631,7 @@
       <c r="A128" s="5">
         <v>20</v>
       </c>
-      <c r="B128" s="12" t="s">
+      <c r="B128" s="19" t="s">
         <v>76</v>
       </c>
       <c r="C128" s="2">
@@ -3644,7 +3647,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B129" s="12" t="s">
+      <c r="B129" s="19" t="s">
         <v>77</v>
       </c>
       <c r="C129" s="8">
@@ -3662,7 +3665,7 @@
       </c>
     </row>
     <row r="130" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B130" s="1" t="s">
+      <c r="B130" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C130" s="2">
@@ -3681,7 +3684,7 @@
       <c r="A131" s="4">
         <v>8</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B131" s="22" t="s">
         <v>78</v>
       </c>
       <c r="C131" s="2">
@@ -3697,7 +3700,7 @@
       </c>
     </row>
     <row r="132" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B132" s="1" t="s">
+      <c r="B132" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C132" s="2">
@@ -3716,7 +3719,7 @@
       <c r="A133" s="4">
         <v>14</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" s="22" t="s">
         <v>79</v>
       </c>
       <c r="C133" s="2">
@@ -3732,7 +3735,7 @@
       </c>
     </row>
     <row r="134" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B134" s="1" t="s">
+      <c r="B134" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C134" s="2">
@@ -3751,7 +3754,7 @@
       <c r="A135" s="4">
         <v>10</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B135" s="22" t="s">
         <v>80</v>
       </c>
       <c r="C135" s="2">
@@ -3767,7 +3770,7 @@
       </c>
     </row>
     <row r="136" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B136" s="1" t="s">
+      <c r="B136" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C136" s="2">
@@ -3786,7 +3789,7 @@
       <c r="A137" s="4">
         <v>12</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B137" s="22" t="s">
         <v>58</v>
       </c>
       <c r="C137" s="2">
@@ -3802,7 +3805,7 @@
       </c>
     </row>
     <row r="138" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B138" s="1" t="s">
+      <c r="B138" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C138" s="2">
@@ -3821,7 +3824,7 @@
       <c r="A139" s="4">
         <v>5</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B139" s="22" t="s">
         <v>81</v>
       </c>
       <c r="C139" s="2">
@@ -3837,7 +3840,7 @@
       </c>
     </row>
     <row r="140" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B140" s="12" t="s">
+      <c r="B140" s="19" t="s">
         <v>82</v>
       </c>
       <c r="C140" s="2">
@@ -3858,7 +3861,7 @@
       <c r="A141" s="5">
         <v>20</v>
       </c>
-      <c r="B141" s="12" t="s">
+      <c r="B141" s="19" t="s">
         <v>83</v>
       </c>
       <c r="C141" s="2">
@@ -3877,7 +3880,7 @@
       <c r="A142" s="5">
         <v>40</v>
       </c>
-      <c r="B142" s="12" t="s">
+      <c r="B142" s="19" t="s">
         <v>84</v>
       </c>
       <c r="C142" s="2">
@@ -3896,7 +3899,7 @@
       <c r="A143" s="5">
         <v>40</v>
       </c>
-      <c r="B143" s="12" t="s">
+      <c r="B143" s="19" t="s">
         <v>85</v>
       </c>
       <c r="C143" s="2">
@@ -3915,7 +3918,7 @@
       <c r="A144" s="5">
         <v>20</v>
       </c>
-      <c r="B144" s="12" t="s">
+      <c r="B144" s="19" t="s">
         <v>86</v>
       </c>
       <c r="C144" s="2">
@@ -3931,7 +3934,7 @@
       </c>
     </row>
     <row r="145" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B145" s="1" t="s">
+      <c r="B145" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C145" s="2">
@@ -3950,7 +3953,7 @@
       <c r="A146" s="4">
         <v>5</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B146" s="22" t="s">
         <v>87</v>
       </c>
       <c r="C146" s="2">
@@ -3966,7 +3969,7 @@
       </c>
     </row>
     <row r="147" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B147" s="1" t="s">
+      <c r="B147" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C147" s="2">
@@ -3985,7 +3988,7 @@
       <c r="A148" s="4">
         <v>5</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B148" s="22" t="s">
         <v>87</v>
       </c>
       <c r="C148" s="2">
@@ -4001,7 +4004,7 @@
       </c>
     </row>
     <row r="149" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B149" s="1" t="s">
+      <c r="B149" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C149" s="2">
@@ -4020,7 +4023,7 @@
       <c r="A150" s="4">
         <v>11</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B150" s="22" t="s">
         <v>31</v>
       </c>
       <c r="C150" s="2">
@@ -4036,7 +4039,7 @@
       </c>
     </row>
     <row r="151" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B151" s="1" t="s">
+      <c r="B151" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C151" s="2">
@@ -4055,7 +4058,7 @@
       <c r="A152" s="4">
         <v>19</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B152" s="22" t="s">
         <v>88</v>
       </c>
       <c r="C152" s="2">
@@ -4074,7 +4077,7 @@
       <c r="A153" s="5">
         <v>29</v>
       </c>
-      <c r="B153" s="12" t="s">
+      <c r="B153" s="19" t="s">
         <v>95</v>
       </c>
       <c r="C153" s="2">
@@ -4093,7 +4096,7 @@
       <c r="A154" s="5">
         <v>31</v>
       </c>
-      <c r="B154" s="12" t="s">
+      <c r="B154" s="19" t="s">
         <v>94</v>
       </c>
       <c r="C154" s="2">
@@ -4112,7 +4115,7 @@
       <c r="A155" s="5">
         <v>40</v>
       </c>
-      <c r="B155" s="12" t="s">
+      <c r="B155" s="19" t="s">
         <v>89</v>
       </c>
       <c r="C155" s="2">
@@ -4131,7 +4134,7 @@
       <c r="A156" s="5">
         <v>40</v>
       </c>
-      <c r="B156" s="12" t="s">
+      <c r="B156" s="19" t="s">
         <v>90</v>
       </c>
       <c r="C156" s="2">
@@ -4150,7 +4153,7 @@
       <c r="A157" s="5">
         <v>30</v>
       </c>
-      <c r="B157" s="12" t="s">
+      <c r="B157" s="19" t="s">
         <v>91</v>
       </c>
       <c r="C157" s="2">
@@ -4169,7 +4172,7 @@
       <c r="A158" s="5">
         <v>40</v>
       </c>
-      <c r="B158" s="12" t="s">
+      <c r="B158" s="19" t="s">
         <v>92</v>
       </c>
       <c r="C158" s="2">
@@ -4188,7 +4191,7 @@
       <c r="A159" s="5">
         <v>30</v>
       </c>
-      <c r="B159" s="12" t="s">
+      <c r="B159" s="19" t="s">
         <v>93</v>
       </c>
       <c r="C159" s="2">
@@ -4204,7 +4207,7 @@
       </c>
     </row>
     <row r="160" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B160" s="1" t="s">
+      <c r="B160" s="22" t="s">
         <v>97</v>
       </c>
       <c r="C160" s="2">
@@ -4220,7 +4223,7 @@
       <c r="A161" s="5">
         <v>40</v>
       </c>
-      <c r="B161" s="12" t="s">
+      <c r="B161" s="19" t="s">
         <v>98</v>
       </c>
       <c r="C161" s="2">
@@ -4239,7 +4242,7 @@
       <c r="A162" s="5">
         <v>30</v>
       </c>
-      <c r="B162" s="12" t="s">
+      <c r="B162" s="19" t="s">
         <v>99</v>
       </c>
       <c r="C162" s="2">
@@ -4258,7 +4261,7 @@
       <c r="A163" s="5">
         <v>30</v>
       </c>
-      <c r="B163" s="12" t="s">
+      <c r="B163" s="19" t="s">
         <v>100</v>
       </c>
       <c r="C163" s="2">
@@ -4279,7 +4282,7 @@
       <c r="A164" s="5">
         <v>20</v>
       </c>
-      <c r="B164" s="12" t="s">
+      <c r="B164" s="19" t="s">
         <v>101</v>
       </c>
       <c r="C164" s="2">
@@ -4295,7 +4298,7 @@
       </c>
     </row>
     <row r="165" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B165" s="1" t="s">
+      <c r="B165" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C165" s="2">
@@ -4314,7 +4317,7 @@
       <c r="A166" s="4">
         <v>7</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="B166" s="22" t="s">
         <v>102</v>
       </c>
       <c r="C166" s="2">
@@ -4330,7 +4333,7 @@
       </c>
     </row>
     <row r="167" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B167" s="1" t="s">
+      <c r="B167" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C167" s="2">
@@ -4349,7 +4352,7 @@
       <c r="A168" s="4">
         <v>6</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="B168" s="22" t="s">
         <v>103</v>
       </c>
       <c r="C168" s="2">
@@ -4365,7 +4368,7 @@
       </c>
     </row>
     <row r="169" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B169" s="1" t="s">
+      <c r="B169" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C169" s="2">
@@ -4384,7 +4387,7 @@
       <c r="A170" s="4">
         <v>7</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="B170" s="22" t="s">
         <v>104</v>
       </c>
       <c r="C170" s="2">
@@ -4400,7 +4403,7 @@
       </c>
     </row>
     <row r="171" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B171" s="1" t="s">
+      <c r="B171" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C171" s="2">
@@ -4419,7 +4422,7 @@
       <c r="A172" s="4">
         <v>4</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="B172" s="22" t="s">
         <v>105</v>
       </c>
       <c r="C172" s="2">
@@ -4435,7 +4438,7 @@
       </c>
     </row>
     <row r="173" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B173" s="1" t="s">
+      <c r="B173" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C173" s="2">
@@ -4454,7 +4457,7 @@
       <c r="A174" s="4">
         <v>5</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="B174" s="22" t="s">
         <v>106</v>
       </c>
       <c r="C174" s="2">
@@ -4473,7 +4476,7 @@
       <c r="A175" s="5">
         <v>75</v>
       </c>
-      <c r="B175" s="12" t="s">
+      <c r="B175" s="19" t="s">
         <v>107</v>
       </c>
       <c r="C175" s="2">
@@ -4492,7 +4495,7 @@
       <c r="A176" s="5">
         <v>50</v>
       </c>
-      <c r="B176" s="12" t="s">
+      <c r="B176" s="19" t="s">
         <v>108</v>
       </c>
       <c r="C176" s="2">
@@ -4511,7 +4514,7 @@
       <c r="A177" s="5">
         <v>25</v>
       </c>
-      <c r="B177" s="12" t="s">
+      <c r="B177" s="19" t="s">
         <v>109</v>
       </c>
       <c r="C177" s="2">
@@ -4530,7 +4533,7 @@
       <c r="A178" s="5">
         <v>23</v>
       </c>
-      <c r="B178" s="12" t="s">
+      <c r="B178" s="19" t="s">
         <v>110</v>
       </c>
       <c r="C178" s="2">
@@ -4546,7 +4549,7 @@
       </c>
     </row>
     <row r="179" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B179" s="1" t="s">
+      <c r="B179" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C179" s="2">
@@ -4565,7 +4568,7 @@
       <c r="A180" s="4">
         <v>5</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="B180" s="22" t="s">
         <v>111</v>
       </c>
       <c r="C180" s="2">
@@ -4581,7 +4584,7 @@
       </c>
     </row>
     <row r="181" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B181" s="1" t="s">
+      <c r="B181" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C181" s="2">
@@ -4600,7 +4603,7 @@
       <c r="A182" s="4">
         <v>8</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="B182" s="22" t="s">
         <v>112</v>
       </c>
       <c r="C182" s="2">
@@ -4616,7 +4619,7 @@
       </c>
     </row>
     <row r="183" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B183" s="1" t="s">
+      <c r="B183" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C183" s="2">
@@ -4635,7 +4638,7 @@
       <c r="A184" s="4">
         <v>9</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="B184" s="22" t="s">
         <v>113</v>
       </c>
       <c r="C184" s="2">
@@ -4651,7 +4654,7 @@
       </c>
     </row>
     <row r="185" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B185" s="1" t="s">
+      <c r="B185" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C185" s="2">
@@ -4670,7 +4673,7 @@
       <c r="A186" s="4">
         <v>9</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="B186" s="22" t="s">
         <v>114</v>
       </c>
       <c r="C186" s="2">
@@ -4689,7 +4692,7 @@
       <c r="A187" s="5">
         <v>35</v>
       </c>
-      <c r="B187" s="12" t="s">
+      <c r="B187" s="19" t="s">
         <v>115</v>
       </c>
       <c r="C187" s="2">
@@ -4708,7 +4711,7 @@
       <c r="A188" s="5">
         <v>75</v>
       </c>
-      <c r="B188" s="12" t="s">
+      <c r="B188" s="19" t="s">
         <v>116</v>
       </c>
       <c r="C188" s="2">
@@ -4724,7 +4727,7 @@
       </c>
     </row>
     <row r="189" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B189" s="1" t="s">
+      <c r="B189" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C189" s="2">
@@ -4743,7 +4746,7 @@
       <c r="A190" s="4">
         <v>9</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="B190" s="22" t="s">
         <v>117</v>
       </c>
       <c r="C190" s="2">
@@ -4759,7 +4762,7 @@
       </c>
     </row>
     <row r="191" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B191" s="1" t="s">
+      <c r="B191" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C191" s="2">
@@ -4778,7 +4781,7 @@
       <c r="A192" s="4">
         <v>6</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="B192" s="22" t="s">
         <v>118</v>
       </c>
       <c r="C192" s="2">
@@ -4794,7 +4797,7 @@
       </c>
     </row>
     <row r="193" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B193" s="1" t="s">
+      <c r="B193" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C193" s="2">
@@ -4813,7 +4816,7 @@
       <c r="A194" s="4">
         <v>5</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="B194" s="22" t="s">
         <v>119</v>
       </c>
       <c r="C194" s="2">
@@ -4829,7 +4832,7 @@
       </c>
     </row>
     <row r="195" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B195" s="1" t="s">
+      <c r="B195" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C195" s="2">
@@ -4848,7 +4851,7 @@
       <c r="A196" s="4">
         <v>8</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="B196" s="22" t="s">
         <v>120</v>
       </c>
       <c r="C196" s="2">
@@ -4864,7 +4867,7 @@
       </c>
     </row>
     <row r="197" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B197" s="1" t="s">
+      <c r="B197" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C197" s="2">
@@ -4883,7 +4886,7 @@
       <c r="A198" s="4">
         <v>2</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="B198" s="22" t="s">
         <v>121</v>
       </c>
       <c r="C198" s="2">
@@ -4899,7 +4902,7 @@
       </c>
     </row>
     <row r="199" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B199" s="1" t="s">
+      <c r="B199" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C199" s="2">
@@ -4918,7 +4921,7 @@
       <c r="A200" s="4">
         <v>10</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="B200" s="22" t="s">
         <v>122</v>
       </c>
       <c r="C200" s="2">
@@ -4937,7 +4940,7 @@
       <c r="A201" s="5">
         <v>75</v>
       </c>
-      <c r="B201" s="12" t="s">
+      <c r="B201" s="19" t="s">
         <v>123</v>
       </c>
       <c r="C201" s="2">
@@ -4945,7 +4948,7 @@
         <v>770669</v>
       </c>
       <c r="D201" s="2"/>
-      <c r="E201" s="19">
+      <c r="E201" s="17">
         <v>40500</v>
       </c>
       <c r="F201" s="3">
@@ -4956,7 +4959,7 @@
       <c r="A202" s="5">
         <v>49</v>
       </c>
-      <c r="B202" s="12" t="s">
+      <c r="B202" s="19" t="s">
         <v>124</v>
       </c>
       <c r="C202" s="2">
@@ -4964,7 +4967,7 @@
         <v>795169</v>
       </c>
       <c r="D202" s="2"/>
-      <c r="E202" s="19">
+      <c r="E202" s="17">
         <v>24500</v>
       </c>
       <c r="F202" s="3">
@@ -4972,7 +4975,7 @@
       </c>
     </row>
     <row r="203" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B203" s="1" t="s">
+      <c r="B203" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C203" s="2">
@@ -4991,7 +4994,7 @@
       <c r="A204" s="4">
         <v>17</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="B204" s="22" t="s">
         <v>125</v>
       </c>
       <c r="C204" s="2">
@@ -5007,7 +5010,7 @@
       </c>
     </row>
     <row r="205" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B205" s="1" t="s">
+      <c r="B205" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C205" s="2">
@@ -5026,7 +5029,7 @@
       <c r="A206" s="4">
         <v>18</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="B206" s="22" t="s">
         <v>126</v>
       </c>
       <c r="C206" s="2">
@@ -5042,7 +5045,7 @@
       </c>
     </row>
     <row r="207" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B207" s="1" t="s">
+      <c r="B207" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C207" s="2">
@@ -5061,7 +5064,7 @@
       <c r="A208" s="4">
         <v>1</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="B208" s="22" t="s">
         <v>127</v>
       </c>
       <c r="C208" s="2">
@@ -5077,7 +5080,7 @@
       </c>
     </row>
     <row r="209" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B209" s="1" t="s">
+      <c r="B209" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C209" s="2">
@@ -5096,7 +5099,7 @@
       <c r="A210" s="4">
         <v>5</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="B210" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C210" s="2">
@@ -5112,7 +5115,7 @@
       </c>
     </row>
     <row r="211" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B211" s="1" t="s">
+      <c r="B211" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C211" s="2">
@@ -5131,7 +5134,7 @@
       <c r="A212" s="4">
         <v>15</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="B212" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C212" s="2">
@@ -5147,7 +5150,7 @@
       </c>
     </row>
     <row r="213" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B213" s="1" t="s">
+      <c r="B213" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C213" s="2">
@@ -5166,7 +5169,7 @@
       <c r="A214" s="4">
         <v>1</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="B214" s="22" t="s">
         <v>25</v>
       </c>
       <c r="C214" s="2">
@@ -5182,7 +5185,7 @@
       </c>
     </row>
     <row r="215" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B215" s="1" t="s">
+      <c r="B215" s="22" t="s">
         <v>128</v>
       </c>
       <c r="C215" s="2">
@@ -5198,7 +5201,7 @@
       </c>
     </row>
     <row r="216" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B216" s="1" t="s">
+      <c r="B216" s="22" t="s">
         <v>128</v>
       </c>
       <c r="C216" s="2">
@@ -5217,7 +5220,7 @@
       <c r="A217" s="5">
         <v>75</v>
       </c>
-      <c r="B217" s="12" t="s">
+      <c r="B217" s="19" t="s">
         <v>129</v>
       </c>
       <c r="C217" s="2">
@@ -5236,7 +5239,7 @@
       <c r="A218" s="5">
         <v>50</v>
       </c>
-      <c r="B218" s="12" t="s">
+      <c r="B218" s="19" t="s">
         <v>130</v>
       </c>
       <c r="C218" s="2">
@@ -5255,7 +5258,7 @@
       <c r="A219" s="5">
         <v>30</v>
       </c>
-      <c r="B219" s="12" t="s">
+      <c r="B219" s="19" t="s">
         <v>131</v>
       </c>
       <c r="C219" s="2">
@@ -5274,7 +5277,7 @@
       <c r="A220" s="5">
         <v>10</v>
       </c>
-      <c r="B220" s="12" t="s">
+      <c r="B220" s="19" t="s">
         <v>132</v>
       </c>
       <c r="C220" s="2">
@@ -5290,7 +5293,7 @@
       </c>
     </row>
     <row r="221" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B221" s="1" t="s">
+      <c r="B221" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C221" s="2">
@@ -5309,7 +5312,7 @@
       <c r="A222" s="4">
         <v>10</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="B222" s="22" t="s">
         <v>133</v>
       </c>
       <c r="C222" s="2">
@@ -5325,7 +5328,7 @@
       </c>
     </row>
     <row r="223" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B223" s="1" t="s">
+      <c r="B223" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C223" s="2">
@@ -5344,7 +5347,7 @@
       <c r="A224" s="5">
         <v>67</v>
       </c>
-      <c r="B224" s="12" t="s">
+      <c r="B224" s="19" t="s">
         <v>134</v>
       </c>
       <c r="C224" s="2">
@@ -5363,7 +5366,7 @@
       <c r="A225" s="5">
         <v>13</v>
       </c>
-      <c r="B225" s="12" t="s">
+      <c r="B225" s="19" t="s">
         <v>135</v>
       </c>
       <c r="C225" s="2">
@@ -5382,7 +5385,7 @@
       <c r="A226" s="5">
         <v>37</v>
       </c>
-      <c r="B226" s="12" t="s">
+      <c r="B226" s="19" t="s">
         <v>136</v>
       </c>
       <c r="C226" s="2">
@@ -5399,7 +5402,7 @@
     </row>
     <row r="227" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A227" s="5"/>
-      <c r="B227" s="12" t="s">
+      <c r="B227" s="19" t="s">
         <v>144</v>
       </c>
       <c r="C227" s="2">
@@ -5415,7 +5418,7 @@
       </c>
     </row>
     <row r="228" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B228" s="1" t="s">
+      <c r="B228" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C228" s="2">
@@ -5431,7 +5434,7 @@
       </c>
     </row>
     <row r="229" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B229" s="1" t="s">
+      <c r="B229" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C229" s="2">
@@ -5450,7 +5453,7 @@
       <c r="A230" s="4">
         <v>13</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="B230" s="22" t="s">
         <v>137</v>
       </c>
       <c r="C230" s="2">
@@ -5469,7 +5472,7 @@
       <c r="A231" s="5">
         <v>75</v>
       </c>
-      <c r="B231" s="12" t="s">
+      <c r="B231" s="19" t="s">
         <v>138</v>
       </c>
       <c r="C231" s="2">
@@ -5487,7 +5490,7 @@
       <c r="A232" s="5">
         <v>60</v>
       </c>
-      <c r="B232" s="12" t="s">
+      <c r="B232" s="19" t="s">
         <v>139</v>
       </c>
       <c r="C232" s="2">
@@ -5505,7 +5508,7 @@
       <c r="A233" s="5">
         <v>45</v>
       </c>
-      <c r="B233" s="12" t="s">
+      <c r="B233" s="19" t="s">
         <v>140</v>
       </c>
       <c r="C233" s="2">
@@ -5523,7 +5526,7 @@
       <c r="A234" s="5">
         <v>33</v>
       </c>
-      <c r="B234" s="12" t="s">
+      <c r="B234" s="19" t="s">
         <v>141</v>
       </c>
       <c r="C234" s="2">
@@ -5538,7 +5541,7 @@
       </c>
     </row>
     <row r="235" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B235" s="1" t="s">
+      <c r="B235" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C235" s="2">
@@ -5557,7 +5560,7 @@
       <c r="A236" s="4">
         <v>7</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="B236" s="22" t="s">
         <v>142</v>
       </c>
       <c r="C236" s="2">
@@ -5573,7 +5576,7 @@
       </c>
     </row>
     <row r="237" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B237" s="1" t="s">
+      <c r="B237" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C237" s="2">
@@ -5592,7 +5595,7 @@
       <c r="A238" s="4">
         <v>3</v>
       </c>
-      <c r="B238" s="1" t="s">
+      <c r="B238" s="22" t="s">
         <v>69</v>
       </c>
       <c r="C238" s="2">
@@ -5608,7 +5611,7 @@
       </c>
     </row>
     <row r="239" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B239" s="1" t="s">
+      <c r="B239" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C239" s="2">
@@ -5627,7 +5630,7 @@
       <c r="A240" s="4">
         <v>1</v>
       </c>
-      <c r="B240" s="1" t="s">
+      <c r="B240" s="22" t="s">
         <v>143</v>
       </c>
       <c r="C240" s="2">
@@ -5643,7 +5646,7 @@
       </c>
     </row>
     <row r="241" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B241" s="1" t="s">
+      <c r="B241" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C241" s="2">
@@ -5662,7 +5665,7 @@
       <c r="A242" s="4">
         <v>2</v>
       </c>
-      <c r="B242" s="1" t="s">
+      <c r="B242" s="22" t="s">
         <v>121</v>
       </c>
       <c r="C242" s="2">
@@ -5678,14 +5681,14 @@
       </c>
     </row>
     <row r="243" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B243" s="1" t="s">
+      <c r="B243" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C243" s="2">
         <f t="shared" si="19"/>
         <v>690575</v>
       </c>
-      <c r="D243" s="15">
+      <c r="D243" s="14">
         <v>10960</v>
       </c>
       <c r="E243" s="6"/>
@@ -5694,14 +5697,14 @@
       </c>
     </row>
     <row r="244" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B244" s="1" t="s">
+      <c r="B244" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C244" s="2">
         <f t="shared" si="19"/>
         <v>670975</v>
       </c>
-      <c r="D244" s="15">
+      <c r="D244" s="14">
         <v>19600</v>
       </c>
       <c r="E244" s="6"/>
@@ -5713,14 +5716,14 @@
       <c r="A245" s="4">
         <v>2</v>
       </c>
-      <c r="B245" s="1" t="s">
+      <c r="B245" s="22" t="s">
         <v>145</v>
       </c>
       <c r="C245" s="2">
         <f t="shared" si="19"/>
         <v>669275</v>
       </c>
-      <c r="D245" s="15">
+      <c r="D245" s="14">
         <v>1700</v>
       </c>
       <c r="E245" s="6"/>
@@ -5729,14 +5732,14 @@
       </c>
     </row>
     <row r="246" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B246" s="1" t="s">
+      <c r="B246" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C246" s="2">
         <f t="shared" si="19"/>
         <v>660875</v>
       </c>
-      <c r="D246" s="15">
+      <c r="D246" s="14">
         <v>8400</v>
       </c>
       <c r="E246" s="6"/>
@@ -5748,14 +5751,14 @@
       <c r="A247" s="4">
         <v>3</v>
       </c>
-      <c r="B247" s="1" t="s">
+      <c r="B247" s="22" t="s">
         <v>146</v>
       </c>
       <c r="C247" s="2">
         <f t="shared" si="19"/>
         <v>658375</v>
       </c>
-      <c r="D247" s="15">
+      <c r="D247" s="14">
         <v>2500</v>
       </c>
       <c r="E247" s="6"/>
@@ -5764,14 +5767,14 @@
       </c>
     </row>
     <row r="248" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B248" s="1" t="s">
+      <c r="B248" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C248" s="2">
         <f t="shared" si="19"/>
         <v>638575</v>
       </c>
-      <c r="D248" s="15">
+      <c r="D248" s="14">
         <v>19800</v>
       </c>
       <c r="E248" s="6"/>
@@ -5783,7 +5786,7 @@
       <c r="A249" s="4">
         <v>9</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="B249" s="22" t="s">
         <v>147</v>
       </c>
       <c r="C249" s="2">
@@ -5802,7 +5805,7 @@
       <c r="A250" s="4">
         <v>7</v>
       </c>
-      <c r="B250" s="1" t="s">
+      <c r="B250" s="22" t="s">
         <v>148</v>
       </c>
       <c r="C250" s="2">
@@ -5821,7 +5824,7 @@
       <c r="A251" s="4">
         <v>10</v>
       </c>
-      <c r="B251" s="1" t="s">
+      <c r="B251" s="22" t="s">
         <v>149</v>
       </c>
       <c r="C251" s="2">
@@ -5840,7 +5843,7 @@
       <c r="A252" s="4">
         <v>7</v>
       </c>
-      <c r="B252" s="1" t="s">
+      <c r="B252" s="22" t="s">
         <v>104</v>
       </c>
       <c r="C252" s="2">
@@ -5859,7 +5862,7 @@
       <c r="A253" s="4">
         <v>12</v>
       </c>
-      <c r="B253" s="1" t="s">
+      <c r="B253" s="22" t="s">
         <v>150</v>
       </c>
       <c r="C253" s="2">
@@ -5875,7 +5878,7 @@
       </c>
     </row>
     <row r="254" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B254" s="1" t="s">
+      <c r="B254" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C254" s="2">
@@ -5894,7 +5897,7 @@
       <c r="A255" s="4">
         <v>10</v>
       </c>
-      <c r="B255" s="1" t="s">
+      <c r="B255" s="22" t="s">
         <v>151</v>
       </c>
       <c r="C255" s="2">
@@ -5910,7 +5913,7 @@
       </c>
     </row>
     <row r="256" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B256" s="12" t="s">
+      <c r="B256" s="19" t="s">
         <v>152</v>
       </c>
       <c r="C256" s="2">
@@ -5926,7 +5929,7 @@
       </c>
     </row>
     <row r="257" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B257" s="1" t="s">
+      <c r="B257" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C257" s="2">
@@ -5945,7 +5948,7 @@
       <c r="A258" s="4">
         <v>3</v>
       </c>
-      <c r="B258" s="1" t="s">
+      <c r="B258" s="22" t="s">
         <v>153</v>
       </c>
       <c r="C258" s="2">
@@ -5961,7 +5964,7 @@
       </c>
     </row>
     <row r="259" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B259" s="1" t="s">
+      <c r="B259" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C259" s="2">
@@ -5980,7 +5983,7 @@
       <c r="A260" s="4">
         <v>4</v>
       </c>
-      <c r="B260" s="1" t="s">
+      <c r="B260" s="22" t="s">
         <v>105</v>
       </c>
       <c r="C260" s="2">
@@ -5996,7 +5999,7 @@
       </c>
     </row>
     <row r="261" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B261" s="1" t="s">
+      <c r="B261" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C261" s="2">
@@ -6015,7 +6018,7 @@
       <c r="A262" s="4">
         <v>3</v>
       </c>
-      <c r="B262" s="1" t="s">
+      <c r="B262" s="22" t="s">
         <v>154</v>
       </c>
       <c r="C262" s="2">
@@ -6031,7 +6034,7 @@
       </c>
     </row>
     <row r="263" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B263" s="1" t="s">
+      <c r="B263" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C263" s="2">
@@ -6050,7 +6053,7 @@
       <c r="A264" s="4">
         <v>7</v>
       </c>
-      <c r="B264" s="1" t="s">
+      <c r="B264" s="22" t="s">
         <v>155</v>
       </c>
       <c r="C264" s="2">
@@ -6066,7 +6069,7 @@
       </c>
     </row>
     <row r="265" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B265" s="1" t="s">
+      <c r="B265" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C265" s="2">
@@ -6085,7 +6088,7 @@
       <c r="A266" s="4">
         <v>5</v>
       </c>
-      <c r="B266" s="1" t="s">
+      <c r="B266" s="22" t="s">
         <v>81</v>
       </c>
       <c r="C266" s="2">
@@ -6101,7 +6104,7 @@
       </c>
     </row>
     <row r="267" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B267" s="1" t="s">
+      <c r="B267" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C267" s="2">
@@ -6120,7 +6123,7 @@
       <c r="A268" s="4">
         <v>13</v>
       </c>
-      <c r="B268" s="1" t="s">
+      <c r="B268" s="22" t="s">
         <v>156</v>
       </c>
       <c r="C268" s="2">
@@ -6136,7 +6139,7 @@
       </c>
     </row>
     <row r="269" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B269" s="1" t="s">
+      <c r="B269" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C269" s="2">
@@ -6155,7 +6158,7 @@
       <c r="A270" s="4">
         <v>12</v>
       </c>
-      <c r="B270" s="1" t="s">
+      <c r="B270" s="22" t="s">
         <v>157</v>
       </c>
       <c r="C270" s="2">
@@ -6171,7 +6174,7 @@
       </c>
     </row>
     <row r="271" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B271" s="1" t="s">
+      <c r="B271" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C271" s="2">
@@ -6190,7 +6193,7 @@
       <c r="A272" s="4">
         <v>12</v>
       </c>
-      <c r="B272" s="1" t="s">
+      <c r="B272" s="22" t="s">
         <v>157</v>
       </c>
       <c r="C272" s="2">
@@ -6209,7 +6212,7 @@
       <c r="A273" s="4">
         <v>8</v>
       </c>
-      <c r="B273" s="1" t="s">
+      <c r="B273" s="22" t="s">
         <v>158</v>
       </c>
       <c r="C273" s="2">
@@ -6228,7 +6231,7 @@
       <c r="A274" s="5">
         <v>1</v>
       </c>
-      <c r="B274" s="12" t="s">
+      <c r="B274" s="19" t="s">
         <v>159</v>
       </c>
       <c r="C274" s="2">
@@ -6247,7 +6250,7 @@
       <c r="A275" s="5">
         <v>30</v>
       </c>
-      <c r="B275" s="12" t="s">
+      <c r="B275" s="19" t="s">
         <v>160</v>
       </c>
       <c r="C275" s="2">
@@ -6266,7 +6269,7 @@
       <c r="A276" s="5">
         <v>31</v>
       </c>
-      <c r="B276" s="12" t="s">
+      <c r="B276" s="19" t="s">
         <v>161</v>
       </c>
       <c r="C276" s="2">
@@ -6285,7 +6288,7 @@
       <c r="A277" s="5">
         <v>26</v>
       </c>
-      <c r="B277" s="12" t="s">
+      <c r="B277" s="19" t="s">
         <v>162</v>
       </c>
       <c r="C277" s="2">
@@ -6304,7 +6307,7 @@
       <c r="A278" s="5">
         <v>32</v>
       </c>
-      <c r="B278" s="12" t="s">
+      <c r="B278" s="19" t="s">
         <v>163</v>
       </c>
       <c r="C278" s="2">
@@ -6323,7 +6326,7 @@
       <c r="A279" s="5">
         <v>45</v>
       </c>
-      <c r="B279" s="12" t="s">
+      <c r="B279" s="19" t="s">
         <v>164</v>
       </c>
       <c r="C279" s="2">
@@ -6342,7 +6345,7 @@
       <c r="A280" s="4">
         <v>6</v>
       </c>
-      <c r="B280" s="1" t="s">
+      <c r="B280" s="22" t="s">
         <v>165</v>
       </c>
       <c r="C280" s="2">
@@ -6361,7 +6364,7 @@
       <c r="A281" s="4">
         <v>13</v>
       </c>
-      <c r="B281" s="1" t="s">
+      <c r="B281" s="22" t="s">
         <v>166</v>
       </c>
       <c r="C281" s="2">
@@ -6380,7 +6383,7 @@
       <c r="A282" s="4">
         <v>6</v>
       </c>
-      <c r="B282" s="1" t="s">
+      <c r="B282" s="22" t="s">
         <v>167</v>
       </c>
       <c r="C282" s="2">
@@ -6399,7 +6402,7 @@
       <c r="A283" s="5">
         <v>75</v>
       </c>
-      <c r="B283" s="12" t="s">
+      <c r="B283" s="19" t="s">
         <v>168</v>
       </c>
       <c r="C283" s="2">
@@ -6415,7 +6418,7 @@
       </c>
     </row>
     <row r="284" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B284" s="1" t="s">
+      <c r="B284" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C284" s="2">
@@ -6434,14 +6437,14 @@
       <c r="A285" s="4">
         <v>14</v>
       </c>
-      <c r="B285" s="1" t="s">
+      <c r="B285" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="C285" s="15">
+      <c r="C285" s="14">
         <f t="shared" si="23"/>
         <v>511052</v>
       </c>
-      <c r="D285" s="15">
+      <c r="D285" s="14">
         <v>12400</v>
       </c>
       <c r="F285" s="3">
@@ -6449,14 +6452,14 @@
       </c>
     </row>
     <row r="286" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B286" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C286" s="15">
+      <c r="B286" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C286" s="14">
         <f t="shared" si="23"/>
         <v>505152</v>
       </c>
-      <c r="D286" s="15">
+      <c r="D286" s="14">
         <v>5900</v>
       </c>
       <c r="F286" s="3">
@@ -6467,14 +6470,14 @@
       <c r="A287" s="4">
         <v>3</v>
       </c>
-      <c r="B287" s="1" t="s">
+      <c r="B287" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="C287" s="15">
+      <c r="C287" s="14">
         <f t="shared" si="23"/>
         <v>502652</v>
       </c>
-      <c r="D287" s="15">
+      <c r="D287" s="14">
         <v>2500</v>
       </c>
       <c r="F287" s="3">
@@ -6485,14 +6488,14 @@
       <c r="A288" s="4">
         <v>4</v>
       </c>
-      <c r="B288" s="1" t="s">
+      <c r="B288" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="C288" s="15">
+      <c r="C288" s="14">
         <f t="shared" si="23"/>
         <v>499252</v>
       </c>
-      <c r="D288" s="15">
+      <c r="D288" s="14">
         <v>3400</v>
       </c>
       <c r="F288" s="3">
@@ -6503,14 +6506,14 @@
       <c r="A289" s="4">
         <v>2</v>
       </c>
-      <c r="B289" s="1" t="s">
+      <c r="B289" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="C289" s="15">
+      <c r="C289" s="14">
         <f t="shared" si="23"/>
         <v>497652</v>
       </c>
-      <c r="D289" s="15">
+      <c r="D289" s="14">
         <v>1600</v>
       </c>
       <c r="F289" s="3">
@@ -6518,14 +6521,14 @@
       </c>
     </row>
     <row r="290" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B290" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C290" s="15">
+      <c r="B290" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C290" s="14">
         <f t="shared" si="23"/>
         <v>492952</v>
       </c>
-      <c r="D290" s="15">
+      <c r="D290" s="14">
         <v>4700</v>
       </c>
       <c r="F290" s="3">
@@ -6536,14 +6539,14 @@
       <c r="A291" s="4">
         <v>5</v>
       </c>
-      <c r="B291" s="1" t="s">
+      <c r="B291" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="C291" s="15">
+      <c r="C291" s="14">
         <f t="shared" si="23"/>
         <v>488652</v>
       </c>
-      <c r="D291" s="15">
+      <c r="D291" s="14">
         <v>4300</v>
       </c>
       <c r="F291" s="3">
@@ -6554,14 +6557,14 @@
       <c r="A292" s="4">
         <v>12</v>
       </c>
-      <c r="B292" s="1" t="s">
+      <c r="B292" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="C292" s="15">
+      <c r="C292" s="14">
         <f t="shared" si="23"/>
         <v>478052</v>
       </c>
-      <c r="D292" s="15">
+      <c r="D292" s="14">
         <v>10600</v>
       </c>
       <c r="F292" s="3">
@@ -6569,14 +6572,14 @@
       </c>
     </row>
     <row r="293" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B293" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C293" s="15">
+      <c r="B293" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C293" s="14">
         <f t="shared" si="23"/>
         <v>473952</v>
       </c>
-      <c r="D293" s="15">
+      <c r="D293" s="14">
         <v>4100</v>
       </c>
       <c r="F293" s="3">
@@ -6587,14 +6590,14 @@
       <c r="A294" s="4">
         <v>15</v>
       </c>
-      <c r="B294" s="1" t="s">
+      <c r="B294" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="C294" s="15">
+      <c r="C294" s="14">
         <f t="shared" si="23"/>
         <v>460752</v>
       </c>
-      <c r="D294" s="15">
+      <c r="D294" s="14">
         <v>13200</v>
       </c>
       <c r="F294" s="3">
@@ -6605,14 +6608,14 @@
       <c r="A295" s="5">
         <v>54</v>
       </c>
-      <c r="B295" s="12" t="s">
+      <c r="B295" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="C295" s="15">
+      <c r="C295" s="14">
         <f>C294+E295</f>
         <v>489912</v>
       </c>
-      <c r="E295" s="18">
+      <c r="E295" s="16">
         <v>29160</v>
       </c>
       <c r="F295" s="3">
@@ -6620,14 +6623,14 @@
       </c>
     </row>
     <row r="296" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B296" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C296" s="15">
+      <c r="B296" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C296" s="14">
         <f t="shared" ref="C296:C303" si="24">C295-D296</f>
         <v>483112</v>
       </c>
-      <c r="D296" s="15">
+      <c r="D296" s="14">
         <v>6800</v>
       </c>
       <c r="F296" s="3">
@@ -6638,14 +6641,14 @@
       <c r="A297" s="4">
         <v>5</v>
       </c>
-      <c r="B297" s="1" t="s">
+      <c r="B297" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="C297" s="15">
+      <c r="C297" s="14">
         <f t="shared" si="24"/>
         <v>478612</v>
       </c>
-      <c r="D297" s="15">
+      <c r="D297" s="14">
         <v>4500</v>
       </c>
       <c r="F297" s="3">
@@ -6653,14 +6656,14 @@
       </c>
     </row>
     <row r="298" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B298" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C298" s="15">
+      <c r="B298" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C298" s="14">
         <f t="shared" si="24"/>
         <v>473612</v>
       </c>
-      <c r="D298" s="15">
+      <c r="D298" s="14">
         <v>5000</v>
       </c>
       <c r="F298" s="3">
@@ -6671,14 +6674,14 @@
       <c r="A299" s="4">
         <v>2</v>
       </c>
-      <c r="B299" s="1" t="s">
+      <c r="B299" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="C299" s="15">
+      <c r="C299" s="14">
         <f t="shared" si="24"/>
         <v>471812</v>
       </c>
-      <c r="D299" s="15">
+      <c r="D299" s="14">
         <v>1800</v>
       </c>
       <c r="F299" s="3">
@@ -6686,14 +6689,14 @@
       </c>
     </row>
     <row r="300" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B300" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C300" s="15">
+      <c r="B300" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C300" s="14">
         <f t="shared" si="24"/>
         <v>459812</v>
       </c>
-      <c r="D300" s="15">
+      <c r="D300" s="14">
         <v>12000</v>
       </c>
       <c r="F300" s="3">
@@ -6704,14 +6707,14 @@
       <c r="A301" s="4">
         <v>3</v>
       </c>
-      <c r="B301" s="1" t="s">
+      <c r="B301" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="C301" s="15">
+      <c r="C301" s="14">
         <f t="shared" si="24"/>
         <v>457212</v>
       </c>
-      <c r="D301" s="15">
+      <c r="D301" s="14">
         <v>2600</v>
       </c>
       <c r="F301" s="3">
@@ -6719,14 +6722,14 @@
       </c>
     </row>
     <row r="302" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B302" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C302" s="15">
+      <c r="B302" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C302" s="14">
         <f t="shared" si="24"/>
         <v>450012</v>
       </c>
-      <c r="D302" s="15">
+      <c r="D302" s="14">
         <v>7200</v>
       </c>
       <c r="F302" s="3">
@@ -6737,14 +6740,14 @@
       <c r="A303" s="4">
         <v>3</v>
       </c>
-      <c r="B303" s="1" t="s">
+      <c r="B303" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="C303" s="15">
+      <c r="C303" s="14">
         <f t="shared" si="24"/>
         <v>447412</v>
       </c>
-      <c r="D303" s="15">
+      <c r="D303" s="14">
         <v>2600</v>
       </c>
       <c r="F303" s="3">
@@ -6752,14 +6755,14 @@
       </c>
     </row>
     <row r="304" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B304" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C304" s="15">
+      <c r="B304" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C304" s="14">
         <f t="shared" ref="C304:C309" si="25">C303-D304</f>
         <v>444712</v>
       </c>
-      <c r="D304" s="15">
+      <c r="D304" s="14">
         <v>2700</v>
       </c>
       <c r="F304" s="3">
@@ -6770,14 +6773,14 @@
       <c r="A305" s="4">
         <v>13</v>
       </c>
-      <c r="B305" s="1" t="s">
+      <c r="B305" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="C305" s="15">
+      <c r="C305" s="14">
         <f t="shared" si="25"/>
         <v>434412</v>
       </c>
-      <c r="D305" s="15">
+      <c r="D305" s="14">
         <v>10300</v>
       </c>
       <c r="F305" s="3">
@@ -6785,14 +6788,14 @@
       </c>
     </row>
     <row r="306" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B306" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C306" s="15">
+      <c r="B306" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C306" s="14">
         <f t="shared" si="25"/>
         <v>427212</v>
       </c>
-      <c r="D306" s="15">
+      <c r="D306" s="14">
         <v>7200</v>
       </c>
       <c r="F306" s="3">
@@ -6803,14 +6806,14 @@
       <c r="A307" s="4">
         <v>3</v>
       </c>
-      <c r="B307" s="1" t="s">
+      <c r="B307" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="C307" s="15">
+      <c r="C307" s="14">
         <f t="shared" si="25"/>
         <v>425112</v>
       </c>
-      <c r="D307" s="15">
+      <c r="D307" s="14">
         <v>2100</v>
       </c>
       <c r="F307" s="3">
@@ -6818,14 +6821,14 @@
       </c>
     </row>
     <row r="308" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B308" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C308" s="15">
+      <c r="B308" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C308" s="14">
         <f t="shared" si="25"/>
         <v>414012</v>
       </c>
-      <c r="D308" s="15">
+      <c r="D308" s="14">
         <v>11100</v>
       </c>
       <c r="F308" s="3">
@@ -6836,14 +6839,14 @@
       <c r="A309" s="4">
         <v>6</v>
       </c>
-      <c r="B309" s="1" t="s">
+      <c r="B309" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="C309" s="15">
+      <c r="C309" s="14">
         <f t="shared" si="25"/>
         <v>409012</v>
       </c>
-      <c r="D309" s="15">
+      <c r="D309" s="14">
         <v>5000</v>
       </c>
       <c r="F309" s="3">
@@ -6854,14 +6857,14 @@
       <c r="A310" s="5">
         <v>40</v>
       </c>
-      <c r="B310" s="12" t="s">
+      <c r="B310" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="C310" s="15">
+      <c r="C310" s="14">
         <f t="shared" ref="C310:C316" si="26">C309+E310</f>
         <v>430612</v>
       </c>
-      <c r="E310" s="18">
+      <c r="E310" s="16">
         <v>21600</v>
       </c>
       <c r="F310" s="3">
@@ -6872,14 +6875,14 @@
       <c r="A311" s="5">
         <v>20</v>
       </c>
-      <c r="B311" s="12" t="s">
+      <c r="B311" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="C311" s="15">
+      <c r="C311" s="14">
         <f t="shared" si="26"/>
         <v>441412</v>
       </c>
-      <c r="E311" s="18">
+      <c r="E311" s="16">
         <v>10800</v>
       </c>
       <c r="F311" s="3">
@@ -6890,14 +6893,14 @@
       <c r="A312" s="5">
         <v>9</v>
       </c>
-      <c r="B312" s="12" t="s">
+      <c r="B312" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="C312" s="15">
+      <c r="C312" s="14">
         <f t="shared" si="26"/>
         <v>446812</v>
       </c>
-      <c r="E312" s="18">
+      <c r="E312" s="16">
         <v>5400</v>
       </c>
       <c r="F312" s="3">
@@ -6908,14 +6911,14 @@
       <c r="A313" s="5">
         <v>19</v>
       </c>
-      <c r="B313" s="12" t="s">
+      <c r="B313" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="C313" s="15">
+      <c r="C313" s="14">
         <f t="shared" si="26"/>
         <v>456312</v>
       </c>
-      <c r="E313" s="18">
+      <c r="E313" s="16">
         <v>9500</v>
       </c>
       <c r="F313" s="3">
@@ -6926,14 +6929,14 @@
       <c r="A314" s="5">
         <v>48</v>
       </c>
-      <c r="B314" s="12" t="s">
+      <c r="B314" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="C314" s="15">
+      <c r="C314" s="14">
         <f t="shared" si="26"/>
         <v>481272</v>
       </c>
-      <c r="E314" s="18">
+      <c r="E314" s="16">
         <v>24960</v>
       </c>
       <c r="F314" s="3">
@@ -6944,14 +6947,14 @@
       <c r="A315" s="5">
         <v>50</v>
       </c>
-      <c r="B315" s="12" t="s">
+      <c r="B315" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="C315" s="15">
+      <c r="C315" s="14">
         <f t="shared" si="26"/>
         <v>508272</v>
       </c>
-      <c r="E315" s="18">
+      <c r="E315" s="16">
         <v>27000</v>
       </c>
       <c r="F315" s="3">
@@ -6962,14 +6965,14 @@
       <c r="A316" s="5">
         <v>20</v>
       </c>
-      <c r="B316" s="12" t="s">
+      <c r="B316" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="C316" s="15">
+      <c r="C316" s="14">
         <f t="shared" si="26"/>
         <v>519072</v>
       </c>
-      <c r="E316" s="18">
+      <c r="E316" s="16">
         <v>10800</v>
       </c>
       <c r="F316" s="3">
@@ -6980,14 +6983,14 @@
       <c r="A317" s="4">
         <v>4</v>
       </c>
-      <c r="B317" s="1" t="s">
+      <c r="B317" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="C317" s="15">
+      <c r="C317" s="14">
         <f>C316-D317</f>
         <v>515672</v>
       </c>
-      <c r="D317" s="15">
+      <c r="D317" s="14">
         <v>3400</v>
       </c>
       <c r="F317" s="3">
@@ -6998,14 +7001,14 @@
       <c r="A318" s="4">
         <v>7</v>
       </c>
-      <c r="B318" s="1" t="s">
+      <c r="B318" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="C318" s="15">
+      <c r="C318" s="14">
         <f>C317-D318</f>
         <v>504872</v>
       </c>
-      <c r="D318" s="15">
+      <c r="D318" s="14">
         <v>10800</v>
       </c>
       <c r="F318" s="3">
@@ -7016,14 +7019,14 @@
       <c r="A319" s="5">
         <v>48</v>
       </c>
-      <c r="B319" s="12" t="s">
+      <c r="B319" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="C319" s="15">
+      <c r="C319" s="14">
         <f>C318+E319</f>
         <v>529832</v>
       </c>
-      <c r="E319" s="18">
+      <c r="E319" s="16">
         <v>24960</v>
       </c>
       <c r="F319" s="3">
@@ -7034,14 +7037,14 @@
       <c r="A320" s="5">
         <v>37</v>
       </c>
-      <c r="B320" s="12" t="s">
+      <c r="B320" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="C320" s="15">
+      <c r="C320" s="14">
         <f>C319+E320</f>
         <v>549072</v>
       </c>
-      <c r="E320" s="18">
+      <c r="E320" s="16">
         <v>19240</v>
       </c>
       <c r="F320" s="3">
@@ -7052,14 +7055,14 @@
       <c r="A321" s="4">
         <v>9</v>
       </c>
-      <c r="B321" s="1" t="s">
+      <c r="B321" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="C321" s="15">
+      <c r="C321" s="14">
         <f t="shared" ref="C321:C333" si="27">C320-D321</f>
         <v>540972</v>
       </c>
-      <c r="D321" s="15">
+      <c r="D321" s="14">
         <v>8100</v>
       </c>
       <c r="F321" s="3">
@@ -7067,14 +7070,14 @@
       </c>
     </row>
     <row r="322" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B322" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C322" s="15">
+      <c r="B322" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C322" s="14">
         <f t="shared" si="27"/>
         <v>529672</v>
       </c>
-      <c r="D322" s="15">
+      <c r="D322" s="14">
         <v>11300</v>
       </c>
       <c r="F322" s="3">
@@ -7085,14 +7088,14 @@
       <c r="A323" s="4">
         <v>4</v>
       </c>
-      <c r="B323" s="1" t="s">
+      <c r="B323" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="C323" s="15">
+      <c r="C323" s="14">
         <f t="shared" si="27"/>
         <v>526272</v>
       </c>
-      <c r="D323" s="15">
+      <c r="D323" s="14">
         <v>3400</v>
       </c>
       <c r="F323" s="3">
@@ -7100,14 +7103,14 @@
       </c>
     </row>
     <row r="324" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B324" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C324" s="15">
+      <c r="B324" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C324" s="14">
         <f t="shared" si="27"/>
         <v>513672</v>
       </c>
-      <c r="D324" s="15">
+      <c r="D324" s="14">
         <v>12600</v>
       </c>
       <c r="F324" s="3">
@@ -7118,14 +7121,14 @@
       <c r="A325" s="4">
         <v>7</v>
       </c>
-      <c r="B325" s="1" t="s">
+      <c r="B325" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="C325" s="15">
+      <c r="C325" s="14">
         <f t="shared" si="27"/>
         <v>508672</v>
       </c>
-      <c r="D325" s="15">
+      <c r="D325" s="14">
         <v>5000</v>
       </c>
       <c r="F325" s="3">
@@ -7133,14 +7136,14 @@
       </c>
     </row>
     <row r="326" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B326" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C326" s="15">
+      <c r="B326" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C326" s="14">
         <f t="shared" si="27"/>
         <v>503572</v>
       </c>
-      <c r="D326" s="15">
+      <c r="D326" s="14">
         <v>5100</v>
       </c>
       <c r="F326" s="3">
@@ -7151,14 +7154,14 @@
       <c r="A327" s="4">
         <v>14</v>
       </c>
-      <c r="B327" s="1" t="s">
+      <c r="B327" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="C327" s="15">
+      <c r="C327" s="14">
         <f t="shared" si="27"/>
         <v>490672</v>
       </c>
-      <c r="D327" s="15">
+      <c r="D327" s="14">
         <v>12900</v>
       </c>
       <c r="F327" s="3">
@@ -7166,14 +7169,14 @@
       </c>
     </row>
     <row r="328" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B328" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C328" s="15">
+      <c r="B328" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C328" s="14">
         <f t="shared" si="27"/>
         <v>482472</v>
       </c>
-      <c r="D328" s="15">
+      <c r="D328" s="14">
         <v>8200</v>
       </c>
       <c r="F328" s="3">
@@ -7181,14 +7184,14 @@
       </c>
     </row>
     <row r="329" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B329" s="1" t="s">
+      <c r="B329" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="C329" s="15">
+      <c r="C329" s="14">
         <f t="shared" si="27"/>
         <v>477472</v>
       </c>
-      <c r="D329" s="15">
+      <c r="D329" s="14">
         <v>5000</v>
       </c>
       <c r="F329" s="3">
@@ -7199,14 +7202,14 @@
       <c r="A330" s="4">
         <v>12</v>
       </c>
-      <c r="B330" s="1" t="s">
+      <c r="B330" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="C330" s="15">
+      <c r="C330" s="14">
         <f t="shared" si="27"/>
         <v>467172</v>
       </c>
-      <c r="D330" s="15">
+      <c r="D330" s="14">
         <v>10300</v>
       </c>
       <c r="F330" s="3">
@@ -7214,14 +7217,14 @@
       </c>
     </row>
     <row r="331" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B331" s="1" t="s">
+      <c r="B331" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="C331" s="15">
+      <c r="C331" s="14">
         <f t="shared" si="27"/>
         <v>463572</v>
       </c>
-      <c r="D331" s="15">
+      <c r="D331" s="14">
         <v>3600</v>
       </c>
       <c r="F331" s="3">
@@ -7232,14 +7235,14 @@
       <c r="A332" s="4">
         <v>12</v>
       </c>
-      <c r="B332" s="1" t="s">
+      <c r="B332" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="C332" s="15">
+      <c r="C332" s="14">
         <f t="shared" si="27"/>
         <v>453372</v>
       </c>
-      <c r="D332" s="15">
+      <c r="D332" s="14">
         <v>10200</v>
       </c>
       <c r="F332" s="3">
@@ -7247,14 +7250,14 @@
       </c>
     </row>
     <row r="333" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B333" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C333" s="15">
+      <c r="B333" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C333" s="14">
         <f t="shared" si="27"/>
         <v>452572</v>
       </c>
-      <c r="D333" s="15">
+      <c r="D333" s="14">
         <v>800</v>
       </c>
       <c r="F333" s="3">
@@ -7265,14 +7268,14 @@
       <c r="A334" s="5">
         <v>20</v>
       </c>
-      <c r="B334" s="12" t="s">
+      <c r="B334" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="C334" s="15">
+      <c r="C334" s="14">
         <f>C333+E334</f>
         <v>463372</v>
       </c>
-      <c r="E334" s="18">
+      <c r="E334" s="16">
         <v>10800</v>
       </c>
       <c r="F334" s="3">
@@ -7283,14 +7286,14 @@
       <c r="A335" s="5">
         <v>30</v>
       </c>
-      <c r="B335" s="12" t="s">
+      <c r="B335" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="C335" s="15">
+      <c r="C335" s="14">
         <f>C334+E335</f>
         <v>479572</v>
       </c>
-      <c r="E335" s="18">
+      <c r="E335" s="16">
         <v>16200</v>
       </c>
       <c r="F335" s="3">
@@ -7298,14 +7301,14 @@
       </c>
     </row>
     <row r="336" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B336" s="1" t="s">
+      <c r="B336" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="C336" s="15">
+      <c r="C336" s="14">
         <f t="shared" ref="C336:C343" si="28">C335-D336</f>
         <v>477172</v>
       </c>
-      <c r="D336" s="15">
+      <c r="D336" s="14">
         <v>2400</v>
       </c>
       <c r="F336" s="3">
@@ -7313,14 +7316,14 @@
       </c>
     </row>
     <row r="337" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B337" s="1" t="s">
+      <c r="B337" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="C337" s="15">
+      <c r="C337" s="14">
         <f t="shared" si="28"/>
         <v>472172</v>
       </c>
-      <c r="D337" s="15">
+      <c r="D337" s="14">
         <v>5000</v>
       </c>
       <c r="F337" s="3">
@@ -7331,14 +7334,14 @@
       <c r="A338" s="4">
         <v>7</v>
       </c>
-      <c r="B338" s="1" t="s">
+      <c r="B338" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="C338" s="15">
+      <c r="C338" s="14">
         <f t="shared" si="28"/>
         <v>466072</v>
       </c>
-      <c r="D338" s="15">
+      <c r="D338" s="14">
         <v>6100</v>
       </c>
       <c r="F338" s="3">
@@ -7349,14 +7352,14 @@
       <c r="A339" s="4">
         <v>17</v>
       </c>
-      <c r="B339" s="1" t="s">
+      <c r="B339" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="C339" s="15">
+      <c r="C339" s="14">
         <f t="shared" si="28"/>
         <v>451172</v>
       </c>
-      <c r="D339" s="15">
+      <c r="D339" s="14">
         <v>14900</v>
       </c>
       <c r="F339" s="3">
@@ -7364,14 +7367,14 @@
       </c>
     </row>
     <row r="340" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B340" s="1" t="s">
+      <c r="B340" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="C340" s="15">
+      <c r="C340" s="14">
         <f t="shared" si="28"/>
         <v>450272</v>
       </c>
-      <c r="D340" s="15">
+      <c r="D340" s="14">
         <v>900</v>
       </c>
       <c r="F340" s="3">
@@ -7382,14 +7385,14 @@
       <c r="A341" s="4">
         <v>6</v>
       </c>
-      <c r="B341" s="1" t="s">
+      <c r="B341" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="C341" s="15">
+      <c r="C341" s="14">
         <f t="shared" si="28"/>
         <v>445172</v>
       </c>
-      <c r="D341" s="15">
+      <c r="D341" s="14">
         <v>5100</v>
       </c>
       <c r="F341" s="3">
@@ -7397,14 +7400,14 @@
       </c>
     </row>
     <row r="342" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B342" s="1" t="s">
+      <c r="B342" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="C342" s="15">
+      <c r="C342" s="14">
         <f t="shared" si="28"/>
         <v>439972</v>
       </c>
-      <c r="D342" s="15">
+      <c r="D342" s="14">
         <v>5200</v>
       </c>
       <c r="F342" s="3">
@@ -7415,14 +7418,14 @@
       <c r="A343" s="4">
         <v>15</v>
       </c>
-      <c r="B343" s="1" t="s">
+      <c r="B343" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="C343" s="15">
+      <c r="C343" s="14">
         <f t="shared" si="28"/>
         <v>427372</v>
       </c>
-      <c r="D343" s="15">
+      <c r="D343" s="14">
         <v>12600</v>
       </c>
       <c r="F343" s="3">
@@ -7433,14 +7436,14 @@
       <c r="A344" s="5">
         <v>20</v>
       </c>
-      <c r="B344" s="12" t="s">
+      <c r="B344" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="C344" s="15">
+      <c r="C344" s="14">
         <f>C343+E344</f>
         <v>438172</v>
       </c>
-      <c r="E344" s="18">
+      <c r="E344" s="16">
         <v>10800</v>
       </c>
       <c r="F344" s="3">
@@ -7451,14 +7454,14 @@
       <c r="A345" s="5">
         <v>10</v>
       </c>
-      <c r="B345" s="12" t="s">
+      <c r="B345" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="C345" s="15">
+      <c r="C345" s="14">
         <f>C344+E345</f>
         <v>443572</v>
       </c>
-      <c r="E345" s="18">
+      <c r="E345" s="16">
         <v>5400</v>
       </c>
       <c r="F345" s="3">
@@ -7469,14 +7472,14 @@
       <c r="A346" s="4">
         <v>8</v>
       </c>
-      <c r="B346" s="1" t="s">
+      <c r="B346" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="C346" s="15">
+      <c r="C346" s="14">
         <f>C345-D346</f>
         <v>436372</v>
       </c>
-      <c r="D346" s="15">
+      <c r="D346" s="14">
         <v>7200</v>
       </c>
       <c r="F346" s="3">
@@ -7487,14 +7490,14 @@
       <c r="A347" s="4">
         <v>2</v>
       </c>
-      <c r="B347" s="1" t="s">
+      <c r="B347" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="C347" s="15">
+      <c r="C347" s="14">
         <f>C346-D347</f>
         <v>434472</v>
       </c>
-      <c r="D347" s="15">
+      <c r="D347" s="14">
         <v>1900</v>
       </c>
       <c r="F347" s="3">
@@ -7505,14 +7508,14 @@
       <c r="A348" s="4">
         <v>15</v>
       </c>
-      <c r="B348" s="1" t="s">
+      <c r="B348" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="C348" s="15">
+      <c r="C348" s="14">
         <f>C347-D348</f>
         <v>420872</v>
       </c>
-      <c r="D348" s="15">
+      <c r="D348" s="14">
         <v>13600</v>
       </c>
       <c r="F348" s="3">
@@ -7523,14 +7526,14 @@
       <c r="A349" s="4">
         <v>3</v>
       </c>
-      <c r="B349" s="1" t="s">
+      <c r="B349" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="C349" s="15">
+      <c r="C349" s="14">
         <f>C348-D349</f>
         <v>418372</v>
       </c>
-      <c r="D349" s="15">
+      <c r="D349" s="14">
         <v>2500</v>
       </c>
       <c r="F349" s="3">
@@ -7541,14 +7544,14 @@
       <c r="A350" s="4">
         <v>3</v>
       </c>
-      <c r="B350" s="1" t="s">
+      <c r="B350" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="C350" s="15">
+      <c r="C350" s="14">
         <f>C349-D350</f>
         <v>415272</v>
       </c>
-      <c r="D350" s="15">
+      <c r="D350" s="14">
         <v>3100</v>
       </c>
       <c r="F350" s="3">
@@ -7559,14 +7562,14 @@
       <c r="A351" s="5">
         <v>48</v>
       </c>
-      <c r="B351" s="12" t="s">
+      <c r="B351" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="C351" s="15">
+      <c r="C351" s="14">
         <f>C350+E351</f>
         <v>440232</v>
       </c>
-      <c r="E351" s="18">
+      <c r="E351" s="16">
         <v>24960</v>
       </c>
       <c r="F351" s="3">
@@ -7577,14 +7580,14 @@
       <c r="A352" s="5">
         <v>35</v>
       </c>
-      <c r="B352" s="12" t="s">
+      <c r="B352" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="C352" s="15">
+      <c r="C352" s="14">
         <f>C351+E352</f>
         <v>457732</v>
       </c>
-      <c r="E352" s="18">
+      <c r="E352" s="16">
         <v>17500</v>
       </c>
       <c r="F352" s="3">
@@ -7595,14 +7598,14 @@
       <c r="A353" s="4">
         <v>6</v>
       </c>
-      <c r="B353" s="1" t="s">
+      <c r="B353" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="C353" s="15">
+      <c r="C353" s="14">
         <f t="shared" ref="C353:C359" si="29">C352-D353</f>
         <v>453732</v>
       </c>
-      <c r="D353" s="15">
+      <c r="D353" s="14">
         <v>4000</v>
       </c>
       <c r="F353" s="3">
@@ -7613,14 +7616,14 @@
       <c r="A354" s="4">
         <v>7</v>
       </c>
-      <c r="B354" s="1" t="s">
+      <c r="B354" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="C354" s="15">
+      <c r="C354" s="14">
         <f t="shared" si="29"/>
         <v>448532</v>
       </c>
-      <c r="D354" s="15">
+      <c r="D354" s="14">
         <v>5200</v>
       </c>
       <c r="F354" s="3">
@@ -7631,14 +7634,14 @@
       <c r="A355" s="4">
         <v>7</v>
       </c>
-      <c r="B355" s="1" t="s">
+      <c r="B355" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="C355" s="15">
+      <c r="C355" s="14">
         <f t="shared" si="29"/>
         <v>443232</v>
       </c>
-      <c r="D355" s="15">
+      <c r="D355" s="14">
         <v>5300</v>
       </c>
       <c r="F355" s="3">
@@ -7649,14 +7652,14 @@
       <c r="A356" s="4">
         <v>5</v>
       </c>
-      <c r="B356" s="1" t="s">
+      <c r="B356" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C356" s="15">
+      <c r="C356" s="14">
         <f t="shared" si="29"/>
         <v>438832</v>
       </c>
-      <c r="D356" s="15">
+      <c r="D356" s="14">
         <v>4400</v>
       </c>
       <c r="F356" s="3">
@@ -7667,14 +7670,14 @@
       <c r="A357" s="4">
         <v>10</v>
       </c>
-      <c r="B357" s="1" t="s">
+      <c r="B357" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C357" s="15">
+      <c r="C357" s="14">
         <f t="shared" si="29"/>
         <v>430432</v>
       </c>
-      <c r="D357" s="15">
+      <c r="D357" s="14">
         <v>8400</v>
       </c>
       <c r="F357" s="3">
@@ -7685,14 +7688,14 @@
       <c r="A358" s="4">
         <v>9</v>
       </c>
-      <c r="B358" s="1" t="s">
+      <c r="B358" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="C358" s="15">
+      <c r="C358" s="14">
         <f t="shared" si="29"/>
         <v>422032</v>
       </c>
-      <c r="D358" s="15">
+      <c r="D358" s="14">
         <v>8400</v>
       </c>
       <c r="F358" s="3">
@@ -7703,14 +7706,14 @@
       <c r="A359" s="4">
         <v>9</v>
       </c>
-      <c r="B359" s="1" t="s">
+      <c r="B359" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="C359" s="15">
+      <c r="C359" s="14">
         <f t="shared" si="29"/>
         <v>414032</v>
       </c>
-      <c r="D359" s="15">
+      <c r="D359" s="14">
         <v>8000</v>
       </c>
       <c r="F359" s="3">
@@ -7721,14 +7724,14 @@
       <c r="A360" s="4">
         <v>8</v>
       </c>
-      <c r="B360" s="1" t="s">
+      <c r="B360" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="C360" s="15">
+      <c r="C360" s="14">
         <f t="shared" ref="C360:C365" si="30">C359-D360</f>
         <v>406932</v>
       </c>
-      <c r="D360" s="15">
+      <c r="D360" s="14">
         <v>7100</v>
       </c>
       <c r="F360" s="3">
@@ -7739,14 +7742,14 @@
       <c r="A361" s="4">
         <v>7</v>
       </c>
-      <c r="B361" s="1" t="s">
+      <c r="B361" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="C361" s="15">
+      <c r="C361" s="14">
         <f t="shared" si="30"/>
         <v>401632</v>
       </c>
-      <c r="D361" s="15">
+      <c r="D361" s="14">
         <v>5300</v>
       </c>
       <c r="F361" s="3">
@@ -7757,14 +7760,14 @@
       <c r="A362" s="4">
         <v>7</v>
       </c>
-      <c r="B362" s="1" t="s">
+      <c r="B362" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="C362" s="15">
+      <c r="C362" s="14">
         <f t="shared" si="30"/>
         <v>395732</v>
       </c>
-      <c r="D362" s="15">
+      <c r="D362" s="14">
         <v>5900</v>
       </c>
       <c r="F362" s="3">
@@ -7775,14 +7778,14 @@
       <c r="A363" s="4">
         <v>7</v>
       </c>
-      <c r="B363" s="1" t="s">
+      <c r="B363" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="C363" s="15">
+      <c r="C363" s="14">
         <f t="shared" si="30"/>
         <v>391132</v>
       </c>
-      <c r="D363" s="15">
+      <c r="D363" s="14">
         <v>4600</v>
       </c>
       <c r="F363" s="3">
@@ -7793,14 +7796,14 @@
       <c r="A364" s="4">
         <v>4</v>
       </c>
-      <c r="B364" s="1" t="s">
+      <c r="B364" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="C364" s="15">
+      <c r="C364" s="14">
         <f t="shared" si="30"/>
         <v>388432</v>
       </c>
-      <c r="D364" s="15">
+      <c r="D364" s="14">
         <v>2700</v>
       </c>
       <c r="F364" s="3">
@@ -7811,14 +7814,14 @@
       <c r="A365" s="4">
         <v>6</v>
       </c>
-      <c r="B365" s="1" t="s">
+      <c r="B365" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="C365" s="15">
+      <c r="C365" s="14">
         <f t="shared" si="30"/>
         <v>384132</v>
       </c>
-      <c r="D365" s="15">
+      <c r="D365" s="14">
         <v>4300</v>
       </c>
       <c r="F365" s="3">
@@ -7829,14 +7832,14 @@
       <c r="A366" s="4">
         <v>2</v>
       </c>
-      <c r="B366" s="1" t="s">
+      <c r="B366" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="C366" s="15">
+      <c r="C366" s="14">
         <f t="shared" ref="C366:C371" si="31">C365-D366</f>
         <v>382732</v>
       </c>
-      <c r="D366" s="15">
+      <c r="D366" s="14">
         <v>1400</v>
       </c>
       <c r="F366" s="3">
@@ -7847,14 +7850,14 @@
       <c r="A367" s="4">
         <v>5</v>
       </c>
-      <c r="B367" s="1" t="s">
+      <c r="B367" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C367" s="15">
+      <c r="C367" s="14">
         <f t="shared" si="31"/>
         <v>378332</v>
       </c>
-      <c r="D367" s="15">
+      <c r="D367" s="14">
         <v>4400</v>
       </c>
       <c r="F367" s="3">
@@ -7865,14 +7868,14 @@
       <c r="A368" s="4">
         <v>6</v>
       </c>
-      <c r="B368" s="1" t="s">
+      <c r="B368" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="C368" s="15">
+      <c r="C368" s="14">
         <f t="shared" si="31"/>
         <v>373532</v>
       </c>
-      <c r="D368" s="15">
+      <c r="D368" s="14">
         <v>4800</v>
       </c>
       <c r="F368" s="3">
@@ -7883,14 +7886,14 @@
       <c r="A369" s="4">
         <v>9</v>
       </c>
-      <c r="B369" s="1" t="s">
+      <c r="B369" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="C369" s="15">
+      <c r="C369" s="14">
         <f t="shared" si="31"/>
         <v>366532</v>
       </c>
-      <c r="D369" s="15">
+      <c r="D369" s="14">
         <v>7000</v>
       </c>
       <c r="F369" s="3">
@@ -7901,14 +7904,14 @@
       <c r="A370" s="4">
         <v>11</v>
       </c>
-      <c r="B370" s="1" t="s">
+      <c r="B370" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="C370" s="15">
+      <c r="C370" s="14">
         <f t="shared" si="31"/>
         <v>357732</v>
       </c>
-      <c r="D370" s="15">
+      <c r="D370" s="14">
         <v>8800</v>
       </c>
       <c r="F370" s="3">
@@ -7919,14 +7922,14 @@
       <c r="A371" s="4">
         <v>10</v>
       </c>
-      <c r="B371" s="1" t="s">
+      <c r="B371" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="C371" s="15">
+      <c r="C371" s="14">
         <f t="shared" si="31"/>
         <v>349332</v>
       </c>
-      <c r="D371" s="15">
+      <c r="D371" s="14">
         <v>8400</v>
       </c>
       <c r="F371" s="3">
@@ -7937,14 +7940,14 @@
       <c r="A372" s="4">
         <v>2</v>
       </c>
-      <c r="B372" s="1" t="s">
+      <c r="B372" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="C372" s="15">
+      <c r="C372" s="14">
         <f>C371-D372</f>
         <v>347632</v>
       </c>
-      <c r="D372" s="15">
+      <c r="D372" s="14">
         <v>1700</v>
       </c>
       <c r="F372" s="3">
@@ -7955,14 +7958,14 @@
       <c r="A373" s="4">
         <v>4</v>
       </c>
-      <c r="B373" s="1" t="s">
+      <c r="B373" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="C373" s="15">
+      <c r="C373" s="14">
         <f>C372-D373</f>
         <v>344732</v>
       </c>
-      <c r="D373" s="15">
+      <c r="D373" s="14">
         <v>2900</v>
       </c>
       <c r="F373" s="3">
@@ -7973,14 +7976,14 @@
       <c r="A374" s="4">
         <v>6</v>
       </c>
-      <c r="B374" s="1" t="s">
+      <c r="B374" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="C374" s="15">
+      <c r="C374" s="14">
         <f>C373-D374</f>
         <v>339532</v>
       </c>
-      <c r="D374" s="15">
+      <c r="D374" s="14">
         <v>5200</v>
       </c>
       <c r="F374" s="3">
@@ -7991,14 +7994,14 @@
       <c r="A375" s="4">
         <v>4</v>
       </c>
-      <c r="B375" s="1" t="s">
+      <c r="B375" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="C375" s="15">
+      <c r="C375" s="14">
         <f>C374-D375</f>
         <v>336132</v>
       </c>
-      <c r="D375" s="15">
+      <c r="D375" s="14">
         <v>3400</v>
       </c>
       <c r="F375" s="3">
@@ -8009,14 +8012,14 @@
       <c r="A376" s="5">
         <v>50</v>
       </c>
-      <c r="B376" s="12" t="s">
+      <c r="B376" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="C376" s="15">
+      <c r="C376" s="14">
         <f>C375+E376</f>
         <v>363132</v>
       </c>
-      <c r="E376" s="18">
+      <c r="E376" s="16">
         <v>27000</v>
       </c>
       <c r="F376" s="3">
@@ -8027,14 +8030,14 @@
       <c r="A377" s="5">
         <v>30</v>
       </c>
-      <c r="B377" s="12" t="s">
+      <c r="B377" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="C377" s="15">
+      <c r="C377" s="14">
         <f>C376+E377</f>
         <v>379332</v>
       </c>
-      <c r="E377" s="18">
+      <c r="E377" s="16">
         <v>16200</v>
       </c>
       <c r="F377" s="3">
@@ -8045,14 +8048,14 @@
       <c r="A378" s="4">
         <v>5</v>
       </c>
-      <c r="B378" s="1" t="s">
+      <c r="B378" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="C378" s="15">
+      <c r="C378" s="14">
         <f>C377-D378</f>
         <v>375332</v>
       </c>
-      <c r="D378" s="15">
+      <c r="D378" s="14">
         <v>4000</v>
       </c>
       <c r="F378" s="3">
@@ -8063,14 +8066,14 @@
       <c r="A379" s="4">
         <v>6</v>
       </c>
-      <c r="B379" s="1" t="s">
+      <c r="B379" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="C379" s="15">
+      <c r="C379" s="14">
         <f>C378-D379</f>
         <v>370732</v>
       </c>
-      <c r="D379" s="15">
+      <c r="D379" s="14">
         <v>4600</v>
       </c>
       <c r="F379" s="3">
@@ -8081,14 +8084,14 @@
       <c r="A380" s="4">
         <v>13</v>
       </c>
-      <c r="B380" s="12" t="s">
+      <c r="B380" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="C380" s="15">
+      <c r="C380" s="14">
         <f>C379+E380</f>
         <v>377752</v>
       </c>
-      <c r="E380" s="18">
+      <c r="E380" s="16">
         <v>7020</v>
       </c>
       <c r="F380" s="3">
@@ -8099,14 +8102,14 @@
       <c r="A381" s="4">
         <v>12</v>
       </c>
-      <c r="B381" s="12" t="s">
+      <c r="B381" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="C381" s="15">
+      <c r="C381" s="14">
         <f>C380+E381</f>
         <v>384232</v>
       </c>
-      <c r="E381" s="18">
+      <c r="E381" s="16">
         <v>6480</v>
       </c>
       <c r="F381" s="3">
@@ -8117,14 +8120,14 @@
       <c r="A382" s="4">
         <v>3</v>
       </c>
-      <c r="B382" s="1" t="s">
+      <c r="B382" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="C382" s="15">
+      <c r="C382" s="14">
         <f t="shared" ref="C382:C400" si="32">C381-D382</f>
         <v>382012</v>
       </c>
-      <c r="D382" s="15">
+      <c r="D382" s="14">
         <v>2220</v>
       </c>
       <c r="F382" s="3">
@@ -8135,14 +8138,14 @@
       <c r="A383" s="4">
         <v>6</v>
       </c>
-      <c r="B383" s="1" t="s">
+      <c r="B383" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="C383" s="15">
+      <c r="C383" s="14">
         <f t="shared" si="32"/>
         <v>377712</v>
       </c>
-      <c r="D383" s="15">
+      <c r="D383" s="14">
         <v>4300</v>
       </c>
       <c r="F383" s="3">
@@ -8153,14 +8156,14 @@
       <c r="A384" s="4">
         <v>3</v>
       </c>
-      <c r="B384" s="1" t="s">
+      <c r="B384" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="C384" s="15">
+      <c r="C384" s="14">
         <f t="shared" si="32"/>
         <v>373112</v>
       </c>
-      <c r="D384" s="15">
+      <c r="D384" s="14">
         <v>4600</v>
       </c>
       <c r="F384" s="3">
@@ -8171,14 +8174,14 @@
       <c r="A385" s="4">
         <v>9</v>
       </c>
-      <c r="B385" s="1" t="s">
+      <c r="B385" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="C385" s="15">
+      <c r="C385" s="14">
         <f t="shared" si="32"/>
         <v>366612</v>
       </c>
-      <c r="D385" s="15">
+      <c r="D385" s="14">
         <v>6500</v>
       </c>
       <c r="F385" s="3">
@@ -8189,14 +8192,14 @@
       <c r="A386" s="4">
         <v>4</v>
       </c>
-      <c r="B386" s="1" t="s">
+      <c r="B386" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="C386" s="15">
+      <c r="C386" s="14">
         <f t="shared" si="32"/>
         <v>362832</v>
       </c>
-      <c r="D386" s="15">
+      <c r="D386" s="14">
         <v>3780</v>
       </c>
       <c r="F386" s="3">
@@ -8207,14 +8210,14 @@
       <c r="A387" s="4">
         <v>7</v>
       </c>
-      <c r="B387" s="1" t="s">
+      <c r="B387" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="C387" s="15">
+      <c r="C387" s="14">
         <f t="shared" si="32"/>
         <v>357632</v>
       </c>
-      <c r="D387" s="15">
+      <c r="D387" s="14">
         <v>5200</v>
       </c>
       <c r="F387" s="3">
@@ -8225,14 +8228,14 @@
       <c r="A388" s="4">
         <v>10</v>
       </c>
-      <c r="B388" s="1" t="s">
+      <c r="B388" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="C388" s="15">
+      <c r="C388" s="14">
         <f t="shared" si="32"/>
         <v>348632</v>
       </c>
-      <c r="D388" s="15">
+      <c r="D388" s="14">
         <v>9000</v>
       </c>
       <c r="F388" s="3">
@@ -8240,14 +8243,14 @@
       </c>
     </row>
     <row r="389" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B389" s="1" t="s">
+      <c r="B389" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="C389" s="15">
+      <c r="C389" s="14">
         <f t="shared" si="32"/>
         <v>347932</v>
       </c>
-      <c r="D389" s="15">
+      <c r="D389" s="14">
         <v>700</v>
       </c>
       <c r="F389" s="3">
@@ -8255,14 +8258,14 @@
       </c>
     </row>
     <row r="390" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B390" s="1" t="s">
+      <c r="B390" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="C390" s="15">
+      <c r="C390" s="14">
         <f t="shared" si="32"/>
         <v>346132</v>
       </c>
-      <c r="D390" s="15">
+      <c r="D390" s="14">
         <v>1800</v>
       </c>
       <c r="F390" s="3">
@@ -8273,14 +8276,14 @@
       <c r="A391" s="4">
         <v>10</v>
       </c>
-      <c r="B391" s="1" t="s">
+      <c r="B391" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="C391" s="15">
+      <c r="C391" s="14">
         <f t="shared" si="32"/>
         <v>337932</v>
       </c>
-      <c r="D391" s="15">
+      <c r="D391" s="14">
         <v>8200</v>
       </c>
       <c r="F391" s="3">
@@ -8288,14 +8291,14 @@
       </c>
     </row>
     <row r="392" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B392" s="1" t="s">
+      <c r="B392" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="C392" s="15">
+      <c r="C392" s="14">
         <f t="shared" si="32"/>
         <v>333632</v>
       </c>
-      <c r="D392" s="15">
+      <c r="D392" s="14">
         <v>4300</v>
       </c>
       <c r="F392" s="3">
@@ -8306,14 +8309,14 @@
       <c r="A393" s="4">
         <v>6</v>
       </c>
-      <c r="B393" s="1" t="s">
+      <c r="B393" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="C393" s="15">
+      <c r="C393" s="14">
         <f t="shared" si="32"/>
         <v>329532</v>
       </c>
-      <c r="D393" s="15">
+      <c r="D393" s="14">
         <v>4100</v>
       </c>
       <c r="F393" s="3">
@@ -8324,14 +8327,14 @@
       <c r="A394" s="4">
         <v>3</v>
       </c>
-      <c r="B394" s="1" t="s">
+      <c r="B394" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="C394" s="15">
+      <c r="C394" s="14">
         <f t="shared" si="32"/>
         <v>327232</v>
       </c>
-      <c r="D394" s="15">
+      <c r="D394" s="14">
         <v>2300</v>
       </c>
       <c r="F394" s="3">
@@ -8342,14 +8345,14 @@
       <c r="A395" s="4">
         <v>12</v>
       </c>
-      <c r="B395" s="1" t="s">
+      <c r="B395" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="C395" s="15">
+      <c r="C395" s="14">
         <f t="shared" si="32"/>
         <v>318232</v>
       </c>
-      <c r="D395" s="15">
+      <c r="D395" s="14">
         <v>9000</v>
       </c>
       <c r="F395" s="3">
@@ -8357,14 +8360,14 @@
       </c>
     </row>
     <row r="396" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B396" s="1" t="s">
+      <c r="B396" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="C396" s="15">
+      <c r="C396" s="14">
         <f t="shared" si="32"/>
         <v>315932</v>
       </c>
-      <c r="D396" s="15">
+      <c r="D396" s="14">
         <v>2300</v>
       </c>
       <c r="F396" s="3">
@@ -8375,14 +8378,14 @@
       <c r="A397" s="4">
         <v>9</v>
       </c>
-      <c r="B397" s="1" t="s">
+      <c r="B397" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="C397" s="15">
+      <c r="C397" s="14">
         <f t="shared" si="32"/>
         <v>309532</v>
       </c>
-      <c r="D397" s="15">
+      <c r="D397" s="14">
         <v>6400</v>
       </c>
       <c r="F397" s="3">
@@ -8390,14 +8393,14 @@
       </c>
     </row>
     <row r="398" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B398" s="1" t="s">
+      <c r="B398" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="C398" s="15">
+      <c r="C398" s="14">
         <f t="shared" si="32"/>
         <v>305532</v>
       </c>
-      <c r="D398" s="15">
+      <c r="D398" s="14">
         <v>4000</v>
       </c>
       <c r="F398" s="3">
@@ -8405,14 +8408,14 @@
       </c>
     </row>
     <row r="399" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B399" s="1" t="s">
+      <c r="B399" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="C399" s="15">
+      <c r="C399" s="14">
         <f t="shared" si="32"/>
         <v>302332</v>
       </c>
-      <c r="D399" s="15">
+      <c r="D399" s="14">
         <v>3200</v>
       </c>
       <c r="F399" s="3">
@@ -8423,14 +8426,14 @@
       <c r="A400" s="4">
         <v>5</v>
       </c>
-      <c r="B400" s="1" t="s">
+      <c r="B400" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="C400" s="15">
+      <c r="C400" s="14">
         <f t="shared" si="32"/>
         <v>298232</v>
       </c>
-      <c r="D400" s="15">
+      <c r="D400" s="14">
         <v>4100</v>
       </c>
       <c r="F400" s="3">
@@ -8441,14 +8444,14 @@
       <c r="A401" s="4">
         <v>5</v>
       </c>
-      <c r="B401" s="1" t="s">
+      <c r="B401" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="C401" s="15">
+      <c r="C401" s="14">
         <f>C400-D401</f>
         <v>293732</v>
       </c>
-      <c r="D401" s="15">
+      <c r="D401" s="14">
         <v>4500</v>
       </c>
       <c r="F401" s="3">
@@ -8456,14 +8459,14 @@
       </c>
     </row>
     <row r="402" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B402" s="1" t="s">
+      <c r="B402" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="C402" s="15">
+      <c r="C402" s="14">
         <f>C401-D402</f>
         <v>289732</v>
       </c>
-      <c r="D402" s="15">
+      <c r="D402" s="14">
         <v>4000</v>
       </c>
       <c r="F402" s="3">
@@ -8474,14 +8477,14 @@
       <c r="A403" s="4">
         <v>1</v>
       </c>
-      <c r="B403" s="1" t="s">
+      <c r="B403" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="C403" s="15">
+      <c r="C403" s="14">
         <f>C402-D403</f>
         <v>289032</v>
       </c>
-      <c r="D403" s="15">
+      <c r="D403" s="14">
         <v>700</v>
       </c>
       <c r="F403" s="3">
@@ -8492,15 +8495,15 @@
       <c r="A404" s="5">
         <v>30</v>
       </c>
-      <c r="B404" s="12" t="s">
+      <c r="B404" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="C404" s="15">
+      <c r="C404" s="14">
         <f>C403+E404</f>
         <v>305232</v>
       </c>
-      <c r="D404" s="18"/>
-      <c r="E404" s="18">
+      <c r="D404" s="16"/>
+      <c r="E404" s="16">
         <v>16200</v>
       </c>
       <c r="F404" s="3">
@@ -8511,14 +8514,14 @@
       <c r="A405" s="4">
         <v>11</v>
       </c>
-      <c r="B405" s="1" t="s">
+      <c r="B405" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="C405" s="15">
+      <c r="C405" s="14">
         <f>C404-D405</f>
         <v>297332</v>
       </c>
-      <c r="D405" s="15">
+      <c r="D405" s="14">
         <v>7900</v>
       </c>
       <c r="F405" s="3">
@@ -8529,14 +8532,14 @@
       <c r="A406" s="4">
         <v>3</v>
       </c>
-      <c r="B406" s="1" t="s">
+      <c r="B406" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C406" s="15">
+      <c r="C406" s="14">
         <f>C405-D406</f>
         <v>295232</v>
       </c>
-      <c r="D406" s="15">
+      <c r="D406" s="14">
         <v>2100</v>
       </c>
       <c r="F406" s="3">
@@ -8547,14 +8550,14 @@
       <c r="A407" s="4">
         <v>2</v>
       </c>
-      <c r="B407" s="1" t="s">
+      <c r="B407" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="C407" s="15">
+      <c r="C407" s="14">
         <f>C406-D407</f>
         <v>293732</v>
       </c>
-      <c r="D407" s="15">
+      <c r="D407" s="14">
         <v>1500</v>
       </c>
       <c r="F407" s="3">
@@ -8565,17 +8568,17 @@
       <c r="A408" s="5">
         <v>40</v>
       </c>
-      <c r="B408" s="12" t="s">
+      <c r="B408" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="C408" s="15">
+      <c r="C408" s="14">
         <f>C407+E408</f>
         <v>315332</v>
       </c>
-      <c r="E408" s="18">
+      <c r="E408" s="16">
         <v>21600</v>
       </c>
-      <c r="F408" s="20">
+      <c r="F408" s="18">
         <v>43330</v>
       </c>
     </row>
@@ -8583,17 +8586,17 @@
       <c r="A409" s="5">
         <v>22</v>
       </c>
-      <c r="B409" s="12" t="s">
+      <c r="B409" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="C409" s="15">
+      <c r="C409" s="14">
         <f>C408+E409</f>
         <v>327212</v>
       </c>
-      <c r="E409" s="18">
+      <c r="E409" s="16">
         <v>11880</v>
       </c>
-      <c r="F409" s="20">
+      <c r="F409" s="18">
         <v>43330</v>
       </c>
     </row>
@@ -8601,17 +8604,17 @@
       <c r="A410" s="5">
         <v>20</v>
       </c>
-      <c r="B410" s="12" t="s">
+      <c r="B410" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="C410" s="15">
+      <c r="C410" s="14">
         <f>C409+E410</f>
         <v>338012</v>
       </c>
-      <c r="E410" s="18">
+      <c r="E410" s="16">
         <v>10800</v>
       </c>
-      <c r="F410" s="20">
+      <c r="F410" s="18">
         <v>43330</v>
       </c>
     </row>
@@ -8619,17 +8622,17 @@
       <c r="A411" s="5">
         <v>18</v>
       </c>
-      <c r="B411" s="12" t="s">
+      <c r="B411" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="C411" s="15">
+      <c r="C411" s="14">
         <f>C410+E411</f>
         <v>347732</v>
       </c>
-      <c r="E411" s="18">
+      <c r="E411" s="16">
         <v>9720</v>
       </c>
-      <c r="F411" s="20">
+      <c r="F411" s="18">
         <v>43330</v>
       </c>
     </row>
@@ -8637,14 +8640,14 @@
       <c r="A412" s="5">
         <v>50</v>
       </c>
-      <c r="B412" s="12" t="s">
+      <c r="B412" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="C412" s="15">
+      <c r="C412" s="14">
         <f>C411+E412</f>
         <v>374732</v>
       </c>
-      <c r="E412" s="18">
+      <c r="E412" s="16">
         <v>27000</v>
       </c>
       <c r="F412" s="3">
@@ -8655,14 +8658,14 @@
       <c r="A413" s="4">
         <v>4</v>
       </c>
-      <c r="B413" s="1" t="s">
+      <c r="B413" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="C413" s="15">
+      <c r="C413" s="14">
         <f t="shared" ref="C413:C418" si="33">C412-D413</f>
         <v>372132</v>
       </c>
-      <c r="D413" s="15">
+      <c r="D413" s="14">
         <v>2600</v>
       </c>
       <c r="F413" s="3">
@@ -8673,14 +8676,14 @@
       <c r="A414" s="4">
         <v>9</v>
       </c>
-      <c r="B414" s="1" t="s">
+      <c r="B414" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="C414" s="15">
+      <c r="C414" s="14">
         <f t="shared" si="33"/>
         <v>365932</v>
       </c>
-      <c r="D414" s="15">
+      <c r="D414" s="14">
         <v>6200</v>
       </c>
       <c r="F414" s="3">
@@ -8688,14 +8691,14 @@
       </c>
     </row>
     <row r="415" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B415" s="1" t="s">
+      <c r="B415" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="C415" s="15">
+      <c r="C415" s="14">
         <f t="shared" si="33"/>
         <v>365032</v>
       </c>
-      <c r="D415" s="15">
+      <c r="D415" s="14">
         <v>900</v>
       </c>
       <c r="F415" s="3">
@@ -8706,14 +8709,14 @@
       <c r="A416" s="4">
         <v>7</v>
       </c>
-      <c r="B416" s="1" t="s">
+      <c r="B416" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="C416" s="15">
+      <c r="C416" s="14">
         <f t="shared" si="33"/>
         <v>359432</v>
       </c>
-      <c r="D416" s="15">
+      <c r="D416" s="14">
         <v>5600</v>
       </c>
       <c r="F416" s="3">
@@ -8721,14 +8724,14 @@
       </c>
     </row>
     <row r="417" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B417" s="1" t="s">
+      <c r="B417" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="C417" s="15">
+      <c r="C417" s="14">
         <f t="shared" si="33"/>
         <v>354832</v>
       </c>
-      <c r="D417" s="15">
+      <c r="D417" s="14">
         <v>4600</v>
       </c>
       <c r="F417" s="3">
@@ -8739,14 +8742,14 @@
       <c r="A418" s="4">
         <v>10</v>
       </c>
-      <c r="B418" s="1" t="s">
+      <c r="B418" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="C418" s="15">
+      <c r="C418" s="14">
         <f t="shared" si="33"/>
         <v>347232</v>
       </c>
-      <c r="D418" s="15">
+      <c r="D418" s="14">
         <v>7600</v>
       </c>
       <c r="F418" s="3">
@@ -8757,14 +8760,14 @@
       <c r="A419" s="5">
         <v>40</v>
       </c>
-      <c r="B419" s="12" t="s">
+      <c r="B419" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="C419" s="15">
+      <c r="C419" s="14">
         <f>C418+E419</f>
         <v>368832</v>
       </c>
-      <c r="E419" s="18">
+      <c r="E419" s="16">
         <v>21600</v>
       </c>
       <c r="F419" s="3">
@@ -8775,14 +8778,14 @@
       <c r="A420" s="5">
         <v>40</v>
       </c>
-      <c r="B420" s="12" t="s">
+      <c r="B420" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="C420" s="15">
+      <c r="C420" s="14">
         <f>C419+E420</f>
         <v>390432</v>
       </c>
-      <c r="E420" s="18">
+      <c r="E420" s="16">
         <v>21600</v>
       </c>
       <c r="F420" s="3">
@@ -8790,14 +8793,14 @@
       </c>
     </row>
     <row r="421" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B421" s="1" t="s">
+      <c r="B421" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="C421" s="15">
+      <c r="C421" s="14">
         <f t="shared" ref="C421:C431" si="34">C420-D421</f>
         <v>386832</v>
       </c>
-      <c r="D421" s="15">
+      <c r="D421" s="14">
         <v>3600</v>
       </c>
       <c r="F421" s="3">
@@ -8808,14 +8811,14 @@
       <c r="A422" s="4">
         <v>1</v>
       </c>
-      <c r="B422" s="1" t="s">
+      <c r="B422" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="C422" s="15">
+      <c r="C422" s="14">
         <f t="shared" si="34"/>
         <v>386232</v>
       </c>
-      <c r="D422" s="15">
+      <c r="D422" s="14">
         <v>600</v>
       </c>
       <c r="F422" s="3">
@@ -8823,14 +8826,14 @@
       </c>
     </row>
     <row r="423" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B423" s="1" t="s">
+      <c r="B423" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="C423" s="15">
+      <c r="C423" s="14">
         <f t="shared" si="34"/>
         <v>383032</v>
       </c>
-      <c r="D423" s="15">
+      <c r="D423" s="14">
         <v>3200</v>
       </c>
       <c r="F423" s="3">
@@ -8841,14 +8844,14 @@
       <c r="A424" s="4">
         <v>3</v>
       </c>
-      <c r="B424" s="1" t="s">
+      <c r="B424" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="C424" s="15">
+      <c r="C424" s="14">
         <f t="shared" si="34"/>
         <v>380732</v>
       </c>
-      <c r="D424" s="15">
+      <c r="D424" s="14">
         <v>2300</v>
       </c>
       <c r="F424" s="3">
@@ -8856,14 +8859,14 @@
       </c>
     </row>
     <row r="425" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B425" s="1" t="s">
+      <c r="B425" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="C425" s="15">
+      <c r="C425" s="14">
         <f t="shared" si="34"/>
         <v>366632</v>
       </c>
-      <c r="D425" s="15">
+      <c r="D425" s="14">
         <v>14100</v>
       </c>
       <c r="F425" s="3">
@@ -8874,14 +8877,14 @@
       <c r="A426" s="4">
         <v>2</v>
       </c>
-      <c r="B426" s="1" t="s">
+      <c r="B426" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="C426" s="15">
+      <c r="C426" s="14">
         <f t="shared" si="34"/>
         <v>365032</v>
       </c>
-      <c r="D426" s="15">
+      <c r="D426" s="14">
         <v>1600</v>
       </c>
       <c r="F426" s="3">
@@ -8889,14 +8892,14 @@
       </c>
     </row>
     <row r="427" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B427" s="1" t="s">
+      <c r="B427" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="C427" s="15">
+      <c r="C427" s="14">
         <f t="shared" si="34"/>
         <v>353532</v>
       </c>
-      <c r="D427" s="15">
+      <c r="D427" s="14">
         <v>11500</v>
       </c>
       <c r="F427" s="3">
@@ -8907,14 +8910,14 @@
       <c r="A428" s="4">
         <v>1</v>
       </c>
-      <c r="B428" s="1" t="s">
+      <c r="B428" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="C428" s="15">
+      <c r="C428" s="14">
         <f t="shared" si="34"/>
         <v>352632</v>
       </c>
-      <c r="D428" s="15">
+      <c r="D428" s="14">
         <v>900</v>
       </c>
       <c r="F428" s="3">
@@ -8922,14 +8925,14 @@
       </c>
     </row>
     <row r="429" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B429" s="1" t="s">
+      <c r="B429" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="C429" s="15">
+      <c r="C429" s="14">
         <f t="shared" si="34"/>
         <v>348032</v>
       </c>
-      <c r="D429" s="15">
+      <c r="D429" s="14">
         <v>4600</v>
       </c>
       <c r="F429" s="3">
@@ -8937,14 +8940,14 @@
       </c>
     </row>
     <row r="430" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B430" s="1" t="s">
+      <c r="B430" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="C430" s="15">
+      <c r="C430" s="14">
         <f t="shared" si="34"/>
         <v>345232</v>
       </c>
-      <c r="D430" s="15">
+      <c r="D430" s="14">
         <v>2800</v>
       </c>
       <c r="F430" s="3">
@@ -8952,14 +8955,14 @@
       </c>
     </row>
     <row r="431" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B431" s="1" t="s">
+      <c r="B431" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="C431" s="15">
+      <c r="C431" s="14">
         <f t="shared" si="34"/>
         <v>339099</v>
       </c>
-      <c r="D431" s="15">
+      <c r="D431" s="14">
         <v>6133</v>
       </c>
       <c r="F431" s="3">
@@ -8967,14 +8970,14 @@
       </c>
     </row>
     <row r="432" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B432" s="1" t="s">
+      <c r="B432" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="C432" s="15">
+      <c r="C432" s="14">
         <f t="shared" ref="C432:C442" si="35">C431-D432</f>
         <v>337199</v>
       </c>
-      <c r="D432" s="15">
+      <c r="D432" s="14">
         <v>1900</v>
       </c>
       <c r="F432" s="3">
@@ -8982,14 +8985,14 @@
       </c>
     </row>
     <row r="433" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B433" s="1" t="s">
+      <c r="B433" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="C433" s="15">
+      <c r="C433" s="14">
         <f t="shared" si="35"/>
         <v>326999</v>
       </c>
-      <c r="D433" s="15">
+      <c r="D433" s="14">
         <v>10200</v>
       </c>
       <c r="F433" s="3">
@@ -9000,14 +9003,14 @@
       <c r="A434" s="4">
         <v>8</v>
       </c>
-      <c r="B434" s="1" t="s">
+      <c r="B434" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="C434" s="15">
+      <c r="C434" s="14">
         <f t="shared" si="35"/>
         <v>320699</v>
       </c>
-      <c r="D434" s="15">
+      <c r="D434" s="14">
         <v>6300</v>
       </c>
       <c r="F434" s="3">
@@ -9015,14 +9018,14 @@
       </c>
     </row>
     <row r="435" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B435" s="1" t="s">
+      <c r="B435" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="C435" s="15">
+      <c r="C435" s="14">
         <f t="shared" si="35"/>
         <v>305199</v>
       </c>
-      <c r="D435" s="15">
+      <c r="D435" s="14">
         <v>15500</v>
       </c>
       <c r="F435" s="3">
@@ -9033,14 +9036,14 @@
       <c r="A436" s="4">
         <v>5</v>
       </c>
-      <c r="B436" s="1" t="s">
+      <c r="B436" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="C436" s="15">
+      <c r="C436" s="14">
         <f t="shared" si="35"/>
         <v>301399</v>
       </c>
-      <c r="D436" s="15">
+      <c r="D436" s="14">
         <v>3800</v>
       </c>
       <c r="F436" s="3">
@@ -9048,14 +9051,14 @@
       </c>
     </row>
     <row r="437" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B437" s="1" t="s">
+      <c r="B437" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="C437" s="15">
+      <c r="C437" s="14">
         <f t="shared" si="35"/>
         <v>282899</v>
       </c>
-      <c r="D437" s="15">
+      <c r="D437" s="14">
         <v>18500</v>
       </c>
       <c r="F437" s="3">
@@ -9066,14 +9069,14 @@
       <c r="A438" s="4">
         <v>4</v>
       </c>
-      <c r="B438" s="1" t="s">
+      <c r="B438" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="C438" s="15">
+      <c r="C438" s="14">
         <f t="shared" si="35"/>
         <v>279699</v>
       </c>
-      <c r="D438" s="15">
+      <c r="D438" s="14">
         <v>3200</v>
       </c>
       <c r="F438" s="3">
@@ -9081,14 +9084,14 @@
       </c>
     </row>
     <row r="439" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B439" s="1" t="s">
+      <c r="B439" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="C439" s="15">
+      <c r="C439" s="14">
         <f t="shared" si="35"/>
         <v>268099</v>
       </c>
-      <c r="D439" s="15">
+      <c r="D439" s="14">
         <v>11600</v>
       </c>
       <c r="F439" s="3">
@@ -9099,14 +9102,14 @@
       <c r="A440" s="4">
         <v>6</v>
       </c>
-      <c r="B440" s="1" t="s">
+      <c r="B440" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="C440" s="15">
+      <c r="C440" s="14">
         <f t="shared" si="35"/>
         <v>263499</v>
       </c>
-      <c r="D440" s="15">
+      <c r="D440" s="14">
         <v>4600</v>
       </c>
       <c r="F440" s="3">
@@ -9114,14 +9117,14 @@
       </c>
     </row>
     <row r="441" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B441" s="1" t="s">
+      <c r="B441" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="C441" s="15">
+      <c r="C441" s="14">
         <f t="shared" si="35"/>
         <v>255499</v>
       </c>
-      <c r="D441" s="15">
+      <c r="D441" s="14">
         <v>8000</v>
       </c>
       <c r="F441" s="3">
@@ -9132,14 +9135,14 @@
       <c r="A442" s="4">
         <v>8</v>
       </c>
-      <c r="B442" s="1" t="s">
+      <c r="B442" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="C442" s="15">
+      <c r="C442" s="14">
         <f t="shared" si="35"/>
         <v>249999</v>
       </c>
-      <c r="D442" s="15">
+      <c r="D442" s="14">
         <v>5500</v>
       </c>
       <c r="F442" s="3">
@@ -9147,14 +9150,14 @@
       </c>
     </row>
     <row r="443" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B443" s="1" t="s">
+      <c r="B443" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="C443" s="15">
+      <c r="C443" s="14">
         <f t="shared" ref="C443:C455" si="36">C442-D443</f>
         <v>242699</v>
       </c>
-      <c r="D443" s="15">
+      <c r="D443" s="14">
         <v>7300</v>
       </c>
       <c r="F443" s="3">
@@ -9165,14 +9168,14 @@
       <c r="A444" s="4">
         <v>6</v>
       </c>
-      <c r="B444" s="1" t="s">
+      <c r="B444" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="C444" s="15">
+      <c r="C444" s="14">
         <f t="shared" si="36"/>
         <v>238499</v>
       </c>
-      <c r="D444" s="15">
+      <c r="D444" s="14">
         <v>4200</v>
       </c>
       <c r="F444" s="3">
@@ -9180,14 +9183,14 @@
       </c>
     </row>
     <row r="445" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B445" s="1" t="s">
+      <c r="B445" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="C445" s="15">
+      <c r="C445" s="14">
         <f t="shared" si="36"/>
         <v>227347</v>
       </c>
-      <c r="D445" s="15">
+      <c r="D445" s="14">
         <v>11152</v>
       </c>
       <c r="F445" s="3">
@@ -9198,14 +9201,14 @@
       <c r="A446" s="4">
         <v>14</v>
       </c>
-      <c r="B446" s="1" t="s">
+      <c r="B446" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="C446" s="15">
+      <c r="C446" s="14">
         <f t="shared" si="36"/>
         <v>217147</v>
       </c>
-      <c r="D446" s="15">
+      <c r="D446" s="14">
         <v>10200</v>
       </c>
       <c r="F446" s="3">
@@ -9213,14 +9216,14 @@
       </c>
     </row>
     <row r="447" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B447" s="1" t="s">
+      <c r="B447" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="C447" s="15">
+      <c r="C447" s="14">
         <f t="shared" si="36"/>
         <v>213247</v>
       </c>
-      <c r="D447" s="15">
+      <c r="D447" s="14">
         <v>3900</v>
       </c>
       <c r="F447" s="3">
@@ -9231,14 +9234,14 @@
       <c r="A448" s="4">
         <v>8</v>
       </c>
-      <c r="B448" s="1" t="s">
+      <c r="B448" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="C448" s="15">
+      <c r="C448" s="14">
         <f t="shared" si="36"/>
         <v>207647</v>
       </c>
-      <c r="D448" s="15">
+      <c r="D448" s="14">
         <v>5600</v>
       </c>
       <c r="F448" s="3">
@@ -9246,14 +9249,14 @@
       </c>
     </row>
     <row r="449" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B449" s="1" t="s">
+      <c r="B449" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="C449" s="15">
+      <c r="C449" s="14">
         <f t="shared" si="36"/>
         <v>198147</v>
       </c>
-      <c r="D449" s="15">
+      <c r="D449" s="14">
         <v>9500</v>
       </c>
       <c r="F449" s="3">
@@ -9264,14 +9267,14 @@
       <c r="A450" s="4">
         <v>10</v>
       </c>
-      <c r="B450" s="1" t="s">
+      <c r="B450" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="C450" s="15">
+      <c r="C450" s="14">
         <f t="shared" si="36"/>
         <v>190247</v>
       </c>
-      <c r="D450" s="15">
+      <c r="D450" s="14">
         <v>7900</v>
       </c>
       <c r="F450" s="3">
@@ -9279,14 +9282,14 @@
       </c>
     </row>
     <row r="451" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B451" s="1" t="s">
+      <c r="B451" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="C451" s="15">
+      <c r="C451" s="14">
         <f t="shared" si="36"/>
         <v>182147</v>
       </c>
-      <c r="D451" s="15">
+      <c r="D451" s="14">
         <v>8100</v>
       </c>
       <c r="F451" s="3">
@@ -9297,14 +9300,14 @@
       <c r="A452" s="4">
         <v>1</v>
       </c>
-      <c r="B452" s="1" t="s">
+      <c r="B452" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="C452" s="15">
+      <c r="C452" s="14">
         <f t="shared" si="36"/>
         <v>181547</v>
       </c>
-      <c r="D452" s="15">
+      <c r="D452" s="14">
         <v>600</v>
       </c>
       <c r="F452" s="3">
@@ -9315,14 +9318,14 @@
       <c r="A453" s="4">
         <v>5</v>
       </c>
-      <c r="B453" s="1" t="s">
+      <c r="B453" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="C453" s="15">
+      <c r="C453" s="14">
         <f t="shared" si="36"/>
         <v>177947</v>
       </c>
-      <c r="D453" s="15">
+      <c r="D453" s="14">
         <v>3600</v>
       </c>
       <c r="F453" s="3">
@@ -9330,14 +9333,14 @@
       </c>
     </row>
     <row r="454" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B454" s="1" t="s">
+      <c r="B454" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="C454" s="15">
+      <c r="C454" s="14">
         <f t="shared" si="36"/>
         <v>170747</v>
       </c>
-      <c r="D454" s="15">
+      <c r="D454" s="14">
         <v>7200</v>
       </c>
       <c r="F454" s="3">
@@ -9348,14 +9351,14 @@
       <c r="A455" s="4">
         <v>2</v>
       </c>
-      <c r="B455" s="1" t="s">
+      <c r="B455" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="C455" s="15">
+      <c r="C455" s="14">
         <f t="shared" si="36"/>
         <v>169447</v>
       </c>
-      <c r="D455" s="15">
+      <c r="D455" s="14">
         <v>1300</v>
       </c>
       <c r="F455" s="3">
@@ -9363,14 +9366,14 @@
       </c>
     </row>
     <row r="456" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B456" s="1" t="s">
+      <c r="B456" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="C456" s="15">
-        <f>C455-D456</f>
+      <c r="C456" s="14">
+        <f t="shared" ref="C456:C475" si="37">C455-D456</f>
         <v>164647</v>
       </c>
-      <c r="D456" s="15">
+      <c r="D456" s="14">
         <v>4800</v>
       </c>
       <c r="F456" s="3">
@@ -9381,14 +9384,14 @@
       <c r="A457" s="4">
         <v>6</v>
       </c>
-      <c r="B457" s="1" t="s">
+      <c r="B457" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="C457" s="15">
-        <f>C456-D457</f>
+      <c r="C457" s="14">
+        <f t="shared" si="37"/>
         <v>160347</v>
       </c>
-      <c r="D457" s="15">
+      <c r="D457" s="14">
         <v>4300</v>
       </c>
       <c r="F457" s="3">
@@ -9396,14 +9399,14 @@
       </c>
     </row>
     <row r="458" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B458" s="1" t="s">
+      <c r="B458" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="C458" s="15">
-        <f>C457-D458</f>
+      <c r="C458" s="14">
+        <f t="shared" si="37"/>
         <v>151847</v>
       </c>
-      <c r="D458" s="15">
+      <c r="D458" s="14">
         <v>8500</v>
       </c>
       <c r="F458" s="3">
@@ -9414,14 +9417,14 @@
       <c r="A459" s="4">
         <v>9</v>
       </c>
-      <c r="B459" s="1" t="s">
+      <c r="B459" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="C459" s="15">
-        <f>C458-D459</f>
+      <c r="C459" s="14">
+        <f t="shared" si="37"/>
         <v>145347</v>
       </c>
-      <c r="D459" s="15">
+      <c r="D459" s="14">
         <v>6500</v>
       </c>
       <c r="F459" s="3">
@@ -9429,14 +9432,14 @@
       </c>
     </row>
     <row r="460" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B460" s="1" t="s">
+      <c r="B460" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="C460" s="15">
-        <f>C459-D460</f>
+      <c r="C460" s="14">
+        <f t="shared" si="37"/>
         <v>136847</v>
       </c>
-      <c r="D460" s="15">
+      <c r="D460" s="14">
         <v>8500</v>
       </c>
       <c r="F460" s="3">
@@ -9447,14 +9450,14 @@
       <c r="A461" s="4">
         <v>10</v>
       </c>
-      <c r="B461" s="1" t="s">
+      <c r="B461" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="C461" s="15">
-        <f>C460-D461</f>
+      <c r="C461" s="14">
+        <f t="shared" si="37"/>
         <v>129547</v>
       </c>
-      <c r="D461" s="15">
+      <c r="D461" s="14">
         <v>7300</v>
       </c>
       <c r="F461" s="3">
@@ -9462,14 +9465,14 @@
       </c>
     </row>
     <row r="462" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B462" s="1" t="s">
+      <c r="B462" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="C462" s="15">
-        <f>C461-D462</f>
+      <c r="C462" s="14">
+        <f t="shared" si="37"/>
         <v>117747</v>
       </c>
-      <c r="D462" s="15">
+      <c r="D462" s="14">
         <v>11800</v>
       </c>
       <c r="F462" s="3">
@@ -9480,14 +9483,14 @@
       <c r="A463" s="4">
         <v>5</v>
       </c>
-      <c r="B463" s="1" t="s">
+      <c r="B463" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="C463" s="15">
-        <f>C462-D463</f>
+      <c r="C463" s="14">
+        <f t="shared" si="37"/>
         <v>111447</v>
       </c>
-      <c r="D463" s="15">
+      <c r="D463" s="14">
         <v>6300</v>
       </c>
       <c r="F463" s="3">
@@ -9495,14 +9498,14 @@
       </c>
     </row>
     <row r="464" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B464" s="1" t="s">
+      <c r="B464" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="C464" s="15">
-        <f>C463-D464</f>
+      <c r="C464" s="14">
+        <f t="shared" si="37"/>
         <v>101247</v>
       </c>
-      <c r="D464" s="15">
+      <c r="D464" s="14">
         <v>10200</v>
       </c>
       <c r="F464" s="3">
@@ -9513,14 +9516,14 @@
       <c r="A465" s="4">
         <v>7</v>
       </c>
-      <c r="B465" s="1" t="s">
+      <c r="B465" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="C465" s="15">
-        <f>C464-D465</f>
+      <c r="C465" s="14">
+        <f t="shared" si="37"/>
         <v>96247</v>
       </c>
-      <c r="D465" s="15">
+      <c r="D465" s="14">
         <v>5000</v>
       </c>
       <c r="F465" s="3">
@@ -9528,14 +9531,14 @@
       </c>
     </row>
     <row r="466" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B466" s="1" t="s">
+      <c r="B466" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="C466" s="15">
-        <f>C465-D466</f>
+      <c r="C466" s="14">
+        <f t="shared" si="37"/>
         <v>86047</v>
       </c>
-      <c r="D466" s="15">
+      <c r="D466" s="14">
         <v>10200</v>
       </c>
       <c r="F466" s="3">
@@ -9546,14 +9549,14 @@
       <c r="A467" s="4">
         <v>11</v>
       </c>
-      <c r="B467" s="1" t="s">
+      <c r="B467" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="C467" s="15">
-        <f>C466-D467</f>
+      <c r="C467" s="14">
+        <f t="shared" si="37"/>
         <v>78547</v>
       </c>
-      <c r="D467" s="15">
+      <c r="D467" s="14">
         <v>7500</v>
       </c>
       <c r="F467" s="3">
@@ -9561,14 +9564,14 @@
       </c>
     </row>
     <row r="468" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B468" s="1" t="s">
+      <c r="B468" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="C468" s="15">
-        <f>C467-D468</f>
+      <c r="C468" s="14">
+        <f t="shared" si="37"/>
         <v>70647</v>
       </c>
-      <c r="D468" s="15">
+      <c r="D468" s="14">
         <v>7900</v>
       </c>
       <c r="F468" s="3">
@@ -9579,14 +9582,14 @@
       <c r="A469" s="4">
         <v>12</v>
       </c>
-      <c r="B469" s="1" t="s">
+      <c r="B469" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="C469" s="15">
-        <f>C468-D469</f>
+      <c r="C469" s="14">
+        <f t="shared" si="37"/>
         <v>62547</v>
       </c>
-      <c r="D469" s="15">
+      <c r="D469" s="14">
         <v>8100</v>
       </c>
       <c r="F469" s="3">
@@ -9597,14 +9600,14 @@
       <c r="A470" s="4">
         <v>7</v>
       </c>
-      <c r="B470" s="1" t="s">
+      <c r="B470" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="C470" s="15">
-        <f>C469-D470</f>
+      <c r="C470" s="14">
+        <f t="shared" si="37"/>
         <v>57747</v>
       </c>
-      <c r="D470" s="15">
+      <c r="D470" s="14">
         <v>4800</v>
       </c>
       <c r="F470" s="3">
@@ -9615,14 +9618,14 @@
       <c r="A471" s="4">
         <v>13</v>
       </c>
-      <c r="B471" s="1" t="s">
+      <c r="B471" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="C471" s="15">
-        <f>C470-D471</f>
+      <c r="C471" s="14">
+        <f t="shared" si="37"/>
         <v>48647</v>
       </c>
-      <c r="D471" s="15">
+      <c r="D471" s="14">
         <v>9100</v>
       </c>
       <c r="F471" s="3">
@@ -9633,14 +9636,14 @@
       <c r="A472" s="4">
         <v>14</v>
       </c>
-      <c r="B472" s="1" t="s">
+      <c r="B472" s="22" t="s">
         <v>275</v>
       </c>
-      <c r="C472" s="15">
-        <f>C471-D472</f>
+      <c r="C472" s="14">
+        <f t="shared" si="37"/>
         <v>38247</v>
       </c>
-      <c r="D472" s="15">
+      <c r="D472" s="14">
         <v>10400</v>
       </c>
       <c r="F472" s="3">
@@ -9651,14 +9654,14 @@
       <c r="A473" s="4">
         <v>8</v>
       </c>
-      <c r="B473" s="1" t="s">
+      <c r="B473" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="C473" s="15">
-        <f>C472-D473</f>
+      <c r="C473" s="14">
+        <f t="shared" si="37"/>
         <v>32447</v>
       </c>
-      <c r="D473" s="15">
+      <c r="D473" s="14">
         <v>5800</v>
       </c>
       <c r="F473" s="3">
@@ -9669,14 +9672,14 @@
       <c r="A474" s="4">
         <v>10</v>
       </c>
-      <c r="B474" s="1" t="s">
+      <c r="B474" s="22" t="s">
         <v>276</v>
       </c>
-      <c r="C474" s="15">
-        <f>C473-D474</f>
+      <c r="C474" s="14">
+        <f t="shared" si="37"/>
         <v>25047</v>
       </c>
-      <c r="D474" s="15">
+      <c r="D474" s="14">
         <v>7400</v>
       </c>
       <c r="F474" s="3">
@@ -9687,14 +9690,14 @@
       <c r="A475" s="4">
         <v>12</v>
       </c>
-      <c r="B475" s="1" t="s">
+      <c r="B475" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="C475" s="15">
-        <f>C474-D475</f>
+      <c r="C475" s="14">
+        <f t="shared" si="37"/>
         <v>16747</v>
       </c>
-      <c r="D475" s="15">
+      <c r="D475" s="14">
         <v>8300</v>
       </c>
       <c r="F475" s="3">
@@ -9702,128 +9705,128 @@
       </c>
     </row>
     <row r="476" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A476" s="22">
+      <c r="A476" s="20">
         <v>5</v>
       </c>
-      <c r="B476" s="21" t="s">
+      <c r="B476" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="C476" s="15">
-        <f>C475+E476</f>
+      <c r="C476" s="14">
+        <f t="shared" ref="C476:C483" si="38">C475+E476</f>
         <v>19447</v>
       </c>
-      <c r="E476" s="18">
+      <c r="E476" s="16">
         <v>2700</v>
       </c>
-      <c r="F476" s="23">
+      <c r="F476" s="21">
         <v>43373</v>
       </c>
     </row>
     <row r="477" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A477" s="22">
+      <c r="A477" s="20">
         <v>25</v>
       </c>
-      <c r="B477" s="21" t="s">
+      <c r="B477" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="C477" s="15">
-        <f>C476+E477</f>
+      <c r="C477" s="14">
+        <f t="shared" si="38"/>
         <v>32947</v>
       </c>
-      <c r="E477" s="18">
+      <c r="E477" s="16">
         <v>13500</v>
       </c>
-      <c r="F477" s="23">
+      <c r="F477" s="21">
         <v>43373</v>
       </c>
     </row>
     <row r="478" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A478" s="22">
+      <c r="A478" s="20">
         <v>19</v>
       </c>
-      <c r="B478" s="21" t="s">
+      <c r="B478" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="C478" s="15">
-        <f>C477+E478</f>
+      <c r="C478" s="14">
+        <f t="shared" si="38"/>
         <v>43207</v>
       </c>
-      <c r="E478" s="18">
+      <c r="E478" s="16">
         <v>10260</v>
       </c>
-      <c r="F478" s="23">
+      <c r="F478" s="21">
         <v>43373</v>
       </c>
     </row>
     <row r="479" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A479" s="22">
+      <c r="A479" s="20">
         <v>25</v>
       </c>
-      <c r="B479" s="21" t="s">
+      <c r="B479" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="C479" s="15">
-        <f>C478+E479</f>
+      <c r="C479" s="14">
+        <f t="shared" si="38"/>
         <v>56707</v>
       </c>
-      <c r="E479" s="18">
+      <c r="E479" s="16">
         <v>13500</v>
       </c>
-      <c r="F479" s="23">
+      <c r="F479" s="21">
         <v>43373</v>
       </c>
     </row>
     <row r="480" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A480" s="22">
+      <c r="A480" s="20">
         <v>1</v>
       </c>
-      <c r="B480" s="21" t="s">
+      <c r="B480" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="C480" s="15">
-        <f>C479+E480</f>
+      <c r="C480" s="14">
+        <f t="shared" si="38"/>
         <v>57247</v>
       </c>
-      <c r="E480" s="18">
+      <c r="E480" s="16">
         <v>540</v>
       </c>
-      <c r="F480" s="23">
+      <c r="F480" s="21">
         <v>43373</v>
       </c>
     </row>
     <row r="481" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A481" s="22">
+      <c r="A481" s="20">
         <v>25</v>
       </c>
-      <c r="B481" s="21" t="s">
+      <c r="B481" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="C481" s="15">
-        <f>C480+E481</f>
+      <c r="C481" s="14">
+        <f t="shared" si="38"/>
         <v>70747</v>
       </c>
-      <c r="E481" s="18">
+      <c r="E481" s="16">
         <v>13500</v>
       </c>
-      <c r="F481" s="23">
+      <c r="F481" s="21">
         <v>43373</v>
       </c>
     </row>
     <row r="482" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A482" s="22">
+      <c r="A482" s="20">
         <v>50</v>
       </c>
-      <c r="B482" s="21" t="s">
+      <c r="B482" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="C482" s="15">
-        <f>C481+E482</f>
+      <c r="C482" s="14">
+        <f t="shared" si="38"/>
         <v>97747</v>
       </c>
-      <c r="E482" s="18">
+      <c r="E482" s="16">
         <v>27000</v>
       </c>
-      <c r="F482" s="23">
+      <c r="F482" s="21">
         <v>43373</v>
       </c>
     </row>
@@ -9831,18 +9834,120 @@
       <c r="A483" s="5">
         <v>100</v>
       </c>
-      <c r="B483" s="21" t="s">
+      <c r="B483" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="C483" s="15">
-        <f>C482+E483</f>
+      <c r="C483" s="14">
+        <f t="shared" si="38"/>
         <v>149747</v>
       </c>
-      <c r="E483" s="18">
+      <c r="E483" s="16">
         <v>52000</v>
       </c>
-      <c r="F483" s="23">
+      <c r="F483" s="21">
         <v>43383</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A484" s="4">
+        <v>10</v>
+      </c>
+      <c r="B484" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="C484" s="14">
+        <f>C483-D484</f>
+        <v>142347</v>
+      </c>
+      <c r="D484" s="14">
+        <v>7400</v>
+      </c>
+      <c r="F484" s="3">
+        <v>43390</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A485" s="4">
+        <v>3</v>
+      </c>
+      <c r="B485" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C485" s="14">
+        <f>C484-D485</f>
+        <v>140047</v>
+      </c>
+      <c r="D485" s="14">
+        <v>2300</v>
+      </c>
+      <c r="F485" s="3">
+        <v>43391</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A486" s="4">
+        <v>3</v>
+      </c>
+      <c r="B486" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C486" s="14">
+        <f>C485-D486</f>
+        <v>138147</v>
+      </c>
+      <c r="D486" s="14">
+        <v>1900</v>
+      </c>
+      <c r="F486" s="3">
+        <v>43393</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A487" s="4">
+        <v>14</v>
+      </c>
+      <c r="B487" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="C487" s="14">
+        <f>C486-D487</f>
+        <v>126507</v>
+      </c>
+      <c r="D487" s="14">
+        <v>11640</v>
+      </c>
+      <c r="F487" s="3">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B488" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="C488" s="14">
+        <f>C487-D488</f>
+        <v>119207</v>
+      </c>
+      <c r="D488" s="14">
+        <v>7300</v>
+      </c>
+      <c r="F488" s="3">
+        <v>43395</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B489" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="C489" s="14">
+        <f>C488-D489</f>
+        <v>112207</v>
+      </c>
+      <c r="D489" s="14">
+        <v>7000</v>
+      </c>
+      <c r="F489" s="3">
+        <v>43396</v>
       </c>
     </row>
   </sheetData>
